--- a/MP69Equivalents.xlsx
+++ b/MP69Equivalents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Desktop\MarioParty69Java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4870D93-68C8-4746-AFA4-F54C9956272F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5156D97-6F4C-48D0-9E40-86A6C3DD77DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EB0D05C6-5931-48AA-8F53-EB8D485F66F4}"/>
+    <workbookView xWindow="8955" yWindow="225" windowWidth="8475" windowHeight="15120" xr2:uid="{EB0D05C6-5931-48AA-8F53-EB8D485F66F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="254">
   <si>
     <t>mp7 reference</t>
   </si>
@@ -780,6 +780,24 @@
   </si>
   <si>
     <t>800262f0</t>
+  </si>
+  <si>
+    <t>800A0738</t>
+  </si>
+  <si>
+    <t>800A68CC</t>
+  </si>
+  <si>
+    <t>800A08D4</t>
+  </si>
+  <si>
+    <t>800A6A68</t>
+  </si>
+  <si>
+    <t>8006AD08</t>
+  </si>
+  <si>
+    <t>8006EDB4</t>
   </si>
 </sst>
 </file>
@@ -867,6 +885,7 @@
         <family val="3"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -886,7 +905,6 @@
         <family val="3"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -923,11 +941,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{886CD958-0F04-4514-BC66-130BF7E74800}" name="Table1" displayName="Table1" ref="A1:B132" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:B132" xr:uid="{8C36E61F-68EE-44B6-B773-76A7B6ADFE00}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{886CD958-0F04-4514-BC66-130BF7E74800}" name="Table1" displayName="Table1" ref="A1:B135" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="A1:B135" xr:uid="{8C36E61F-68EE-44B6-B773-76A7B6ADFE00}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B132">
+    <sortCondition ref="A1:A132"/>
+  </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{1773728D-161D-433F-A6F8-351ECEAD1468}" name="mp6 reference" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{D34C955A-D93A-40A9-9C67-92FE8F88D4FC}" name="mp7 reference" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{1773728D-161D-433F-A6F8-351ECEAD1468}" name="mp6 reference" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{D34C955A-D93A-40A9-9C67-92FE8F88D4FC}" name="mp7 reference" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1232,8 +1253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5AD9A1-E048-4F9F-8202-7E7D3A2CB996}">
   <dimension ref="A1:E566"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1252,311 +1273,311 @@
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>244</v>
+      <c r="A2" s="1">
+        <v>80023308</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>245</v>
+        <v>95</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B3" s="1">
-        <v>80041774</v>
+      <c r="A3" s="1">
+        <v>80026760</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>108</v>
+      <c r="A4" s="1">
+        <v>80027884</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
+      <c r="A5" s="1">
+        <v>80028630</v>
+      </c>
+      <c r="B5" s="1">
+        <v>80029350</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>110</v>
+      <c r="A6" s="1">
+        <v>80099728</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>111</v>
+      <c r="A7" s="1">
+        <v>80099788</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B9" s="1">
-        <v>80028494</v>
+        <v>140</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B11" s="1">
-        <v>80028648</v>
+        <v>139</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>221</v>
+        <v>29</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>80028630</v>
-      </c>
-      <c r="B15" s="1">
-        <v>80029350</v>
+      <c r="A15" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B17" s="1">
-        <v>80029830</v>
+        <v>129</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>202</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>124</v>
+        <v>222</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>14</v>
+        <v>222</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>125</v>
+        <v>206</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>15</v>
+        <v>220</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>16</v>
+        <v>147</v>
+      </c>
+      <c r="B23" s="1">
+        <v>80023450</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>18</v>
+        <v>211</v>
+      </c>
+      <c r="B25" s="1">
+        <v>80023680</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>129</v>
+        <v>246</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>131</v>
+        <v>241</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>21</v>
+        <v>226</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>22</v>
+        <v>136</v>
+      </c>
+      <c r="B29" s="1">
+        <v>80027364</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>133</v>
+        <v>201</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>24</v>
+        <v>203</v>
+      </c>
+      <c r="B31" s="1">
+        <v>80027774</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>80026760</v>
+      <c r="A32" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1573,1009 +1594,1021 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="B34" s="1">
-        <v>80027364</v>
+        <v>80028494</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>218</v>
+        <v>114</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>28</v>
+        <v>115</v>
+      </c>
+      <c r="B36" s="1">
+        <v>80028648</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>138</v>
+        <v>234</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>30</v>
+        <v>120</v>
+      </c>
+      <c r="B38" s="1">
+        <v>80029830</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>146</v>
+        <v>205</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>37</v>
+        <v>219</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B46" s="1">
-        <v>80023450</v>
+        <v>128</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>41</v>
+        <v>243</v>
+      </c>
+      <c r="B50" s="1">
+        <v>80041774</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>152</v>
+        <v>204</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>156</v>
+        <v>240</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>46</v>
+        <v>225</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>157</v>
+        <v>242</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>47</v>
+        <v>227</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>158</v>
+        <v>235</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>48</v>
+        <v>223</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>159</v>
+        <v>238</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>49</v>
+        <v>232</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>50</v>
+        <v>228</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>161</v>
+        <v>236</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>51</v>
+        <v>230</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>162</v>
+        <v>237</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>52</v>
+        <v>231</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>163</v>
+        <v>239</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>53</v>
+        <v>224</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>165</v>
+        <v>108</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>174</v>
+        <v>244</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>64</v>
+        <v>245</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
-        <v>80099728</v>
+      <c r="A97" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
-        <v>80027884</v>
+      <c r="A102" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B104" s="1">
-        <v>80027774</v>
+        <v>193</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
-        <v>80023308</v>
+      <c r="A105" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
-        <v>80099788</v>
+      <c r="A107" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>219</v>
+        <v>71</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>220</v>
+        <v>54</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>207</v>
+        <v>168</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>209</v>
+        <v>165</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>210</v>
+        <v>166</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B114" s="1">
-        <v>80023680</v>
+        <v>154</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>212</v>
+        <v>146</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>216</v>
+        <v>162</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>222</v>
+        <v>110</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>222</v>
+        <v>4</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>233</v>
+        <v>111</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>228</v>
+        <v>5</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>234</v>
+        <v>153</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>229</v>
+        <v>43</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>235</v>
+        <v>152</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>223</v>
+        <v>42</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>236</v>
+        <v>158</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>230</v>
+        <v>48</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>237</v>
+        <v>157</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>231</v>
+        <v>47</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>238</v>
+        <v>150</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>232</v>
+        <v>40</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>239</v>
+        <v>151</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>224</v>
+        <v>41</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>240</v>
+        <v>126</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>225</v>
+        <v>16</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>241</v>
+        <v>159</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>226</v>
+        <v>49</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>242</v>
+        <v>161</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>227</v>
+        <v>51</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>246</v>
+        <v>112</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>247</v>
+        <v>6</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133"/>
-      <c r="B133"/>
+      <c r="A133" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134"/>
-      <c r="B134"/>
+      <c r="A134" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>251</v>
+      </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135"/>
-      <c r="B135"/>
+      <c r="A135" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>253</v>
+      </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
     </row>

--- a/MP69Equivalents.xlsx
+++ b/MP69Equivalents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Desktop\MarioParty69Java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5156D97-6F4C-48D0-9E40-86A6C3DD77DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867CF83F-D8B4-42DF-B762-BCE2A03438F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8955" yWindow="225" windowWidth="8475" windowHeight="15120" xr2:uid="{EB0D05C6-5931-48AA-8F53-EB8D485F66F4}"/>
+    <workbookView xWindow="29685" yWindow="1890" windowWidth="6090" windowHeight="11250" xr2:uid="{EB0D05C6-5931-48AA-8F53-EB8D485F66F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="337">
   <si>
     <t>mp7 reference</t>
   </si>
@@ -113,9 +113,6 @@
     <t xml:space="preserve">800263DC </t>
   </si>
   <si>
-    <t xml:space="preserve">800271A4 </t>
-  </si>
-  <si>
     <t xml:space="preserve">80027B7C </t>
   </si>
   <si>
@@ -302,9 +299,6 @@
     <t xml:space="preserve">800FF120 </t>
   </si>
   <si>
-    <t xml:space="preserve">8009F8BC </t>
-  </si>
-  <si>
     <t xml:space="preserve">800BA684 </t>
   </si>
   <si>
@@ -317,15 +311,9 @@
     <t xml:space="preserve">800276F0 </t>
   </si>
   <si>
-    <t xml:space="preserve">8002847C </t>
-  </si>
-  <si>
     <t xml:space="preserve">8000F61C </t>
   </si>
   <si>
-    <t xml:space="preserve">80023A60 </t>
-  </si>
-  <si>
     <t xml:space="preserve">80041DD4 </t>
   </si>
   <si>
@@ -798,6 +786,267 @@
   </si>
   <si>
     <t>8006EDB4</t>
+  </si>
+  <si>
+    <t>80016B6C</t>
+  </si>
+  <si>
+    <t>80017110</t>
+  </si>
+  <si>
+    <t>80014BA4</t>
+  </si>
+  <si>
+    <t>8000B888</t>
+  </si>
+  <si>
+    <t>8000BE00</t>
+  </si>
+  <si>
+    <t>80150B9C</t>
+  </si>
+  <si>
+    <t>8014A30C</t>
+  </si>
+  <si>
+    <t>8000A730</t>
+  </si>
+  <si>
+    <t>8000ACA8</t>
+  </si>
+  <si>
+    <t>80069F1C</t>
+  </si>
+  <si>
+    <t>8003E5A4</t>
+  </si>
+  <si>
+    <t>800293B4</t>
+  </si>
+  <si>
+    <t>8002968C</t>
+  </si>
+  <si>
+    <t>8003B0B8</t>
+  </si>
+  <si>
+    <t>8003B1B4</t>
+  </si>
+  <si>
+    <t>802C0232</t>
+  </si>
+  <si>
+    <t>802BFFE0</t>
+  </si>
+  <si>
+    <t>8000C354</t>
+  </si>
+  <si>
+    <t>802C0068</t>
+  </si>
+  <si>
+    <t>802BFFDC</t>
+  </si>
+  <si>
+    <t>80026A44</t>
+  </si>
+  <si>
+    <t>800262D0</t>
+  </si>
+  <si>
+    <t>8003AEA0</t>
+  </si>
+  <si>
+    <t>80025D4C</t>
+  </si>
+  <si>
+    <t>8003B204</t>
+  </si>
+  <si>
+    <t>8003B214</t>
+  </si>
+  <si>
+    <t>8003B224</t>
+  </si>
+  <si>
+    <t>8000C4B0</t>
+  </si>
+  <si>
+    <t>80028E10</t>
+  </si>
+  <si>
+    <t>80025824</t>
+  </si>
+  <si>
+    <t>800269E8</t>
+  </si>
+  <si>
+    <t>80026808</t>
+  </si>
+  <si>
+    <t>80099788</t>
+  </si>
+  <si>
+    <t>80014600</t>
+  </si>
+  <si>
+    <t>80023308</t>
+  </si>
+  <si>
+    <t>80023A60</t>
+  </si>
+  <si>
+    <t>80027884</t>
+  </si>
+  <si>
+    <t>8002847C</t>
+  </si>
+  <si>
+    <t>80099728</t>
+  </si>
+  <si>
+    <t>8009F8BC</t>
+  </si>
+  <si>
+    <t>8000C8CC</t>
+  </si>
+  <si>
+    <t>8000CA28</t>
+  </si>
+  <si>
+    <t>80025630</t>
+  </si>
+  <si>
+    <t>80026008</t>
+  </si>
+  <si>
+    <t>800261FC</t>
+  </si>
+  <si>
+    <t>8002672C</t>
+  </si>
+  <si>
+    <t>80026CE0</t>
+  </si>
+  <si>
+    <t>80026648</t>
+  </si>
+  <si>
+    <t>80027074</t>
+  </si>
+  <si>
+    <t>80027284</t>
+  </si>
+  <si>
+    <t>800274F8</t>
+  </si>
+  <si>
+    <t>80027570</t>
+  </si>
+  <si>
+    <t>80029B30</t>
+  </si>
+  <si>
+    <t>8002A3AC</t>
+  </si>
+  <si>
+    <t>8002A154</t>
+  </si>
+  <si>
+    <t>8006DFC8</t>
+  </si>
+  <si>
+    <t>800406A4</t>
+  </si>
+  <si>
+    <t>8003D0C8</t>
+  </si>
+  <si>
+    <t>8003D1C4</t>
+  </si>
+  <si>
+    <t>8003D214</t>
+  </si>
+  <si>
+    <t>8003D224</t>
+  </si>
+  <si>
+    <t>8003B234</t>
+  </si>
+  <si>
+    <t>802F2CA0</t>
+  </si>
+  <si>
+    <t>802F2C9C</t>
+  </si>
+  <si>
+    <t>802F2D28</t>
+  </si>
+  <si>
+    <t>802F2C20</t>
+  </si>
+  <si>
+    <t>80265728</t>
+  </si>
+  <si>
+    <t>80290C48</t>
+  </si>
+  <si>
+    <t>8000E314</t>
+  </si>
+  <si>
+    <t>8000DD9C</t>
+  </si>
+  <si>
+    <t>802C0248</t>
+  </si>
+  <si>
+    <t>802F2F30</t>
+  </si>
+  <si>
+    <t>800A8910</t>
+  </si>
+  <si>
+    <t>800AEA64</t>
+  </si>
+  <si>
+    <t>80076730</t>
+  </si>
+  <si>
+    <t>80076610</t>
+  </si>
+  <si>
+    <t>8007679C</t>
+  </si>
+  <si>
+    <t>80042ED8</t>
+  </si>
+  <si>
+    <t>8005FF58</t>
+  </si>
+  <si>
+    <t>80060568</t>
+  </si>
+  <si>
+    <t>80071BAC</t>
+  </si>
+  <si>
+    <t>80071C18</t>
+  </si>
+  <si>
+    <t>8003CEB0</t>
+  </si>
+  <si>
+    <t>80040DD8</t>
+  </si>
+  <si>
+    <t>8005BE80</t>
+  </si>
+  <si>
+    <t>8005C4E4</t>
+  </si>
+  <si>
+    <t>80071A8C</t>
   </si>
 </sst>
 </file>
@@ -838,11 +1087,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -905,6 +1155,7 @@
         <family val="3"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -941,10 +1192,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{886CD958-0F04-4514-BC66-130BF7E74800}" name="Table1" displayName="Table1" ref="A1:B135" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <autoFilter ref="A1:B135" xr:uid="{8C36E61F-68EE-44B6-B773-76A7B6ADFE00}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B132">
-    <sortCondition ref="A1:A132"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{886CD958-0F04-4514-BC66-130BF7E74800}" name="Table1" displayName="Table1" ref="A1:B173" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="A1:B173" xr:uid="{8C36E61F-68EE-44B6-B773-76A7B6ADFE00}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B173">
+    <sortCondition ref="B1:B173"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{1773728D-161D-433F-A6F8-351ECEAD1468}" name="mp6 reference" dataDxfId="1"/>
@@ -1251,18 +1502,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5AD9A1-E048-4F9F-8202-7E7D3A2CB996}">
-  <dimension ref="A1:E566"/>
+  <dimension ref="A1:F566"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="C120" sqref="C120"/>
+    <sheetView tabSelected="1" topLeftCell="A155" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.140625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1271,1150 +1523,1200 @@
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>80023308</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>95</v>
+      <c r="F1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="1">
+        <v>80023450</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>80026760</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>25</v>
+      <c r="F2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" s="1">
+        <v>80023680</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>80027884</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>93</v>
+      <c r="F3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="1">
+        <v>80027364</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>80028630</v>
+      <c r="F4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="B5" s="1">
-        <v>80029350</v>
+        <v>80027774</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>80099728</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>88</v>
+      <c r="F5"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="1">
+        <v>80028494</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>80099788</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>97</v>
+      <c r="F6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="1">
+        <v>80028648</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>116</v>
+      </c>
+      <c r="B8" s="1">
+        <v>80029830</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>239</v>
+      </c>
+      <c r="B9" s="1">
+        <v>80041774</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>138</v>
+        <v>257</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>258</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>221</v>
+        <v>32</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>129</v>
+        <v>253</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>254</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>267</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>13</v>
+        <v>290</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>202</v>
+        <v>277</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>94</v>
+        <v>291</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>222</v>
+        <v>114</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>206</v>
+        <v>319</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>220</v>
+        <v>318</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B23" s="1">
-        <v>80023450</v>
+        <v>145</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B25" s="1">
-        <v>80023680</v>
+        <v>123</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>246</v>
+        <v>119</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>134</v>
+        <v>198</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B29" s="1">
-        <v>80027364</v>
+        <v>202</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>92</v>
+        <v>252</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B31" s="1">
-        <v>80027774</v>
+        <v>250</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>218</v>
+        <v>141</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>135</v>
+        <v>284</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>26</v>
+        <v>285</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B34" s="1">
-        <v>80028494</v>
+        <v>292</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>293</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>114</v>
+        <v>279</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>7</v>
+        <v>294</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B36" s="1">
-        <v>80028648</v>
+        <v>242</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>243</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>234</v>
+        <v>130</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>229</v>
+        <v>24</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B38" s="1">
-        <v>80029830</v>
+        <v>273</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>295</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>119</v>
+        <v>271</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>10</v>
+        <v>296</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>130</v>
+        <v>297</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>20</v>
+        <v>298</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>131</v>
+        <v>237</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>21</v>
+        <v>222</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>132</v>
+        <v>281</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>22</v>
+        <v>299</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>183</v>
+        <v>280</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>73</v>
+        <v>300</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>143</v>
+        <v>270</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>34</v>
+        <v>301</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>219</v>
+        <v>90</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>128</v>
+        <v>214</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>117</v>
+        <v>286</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>9</v>
+        <v>287</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B50" s="1">
-        <v>80041774</v>
+        <v>230</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>204</v>
+        <v>278</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>96</v>
+        <v>302</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>124</v>
+        <v>261</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>14</v>
+        <v>304</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>125</v>
+        <v>262</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>15</v>
+        <v>303</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>240</v>
+        <v>126</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>225</v>
+        <v>20</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>242</v>
+        <v>127</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>227</v>
+        <v>21</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>235</v>
+        <v>128</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>223</v>
+        <v>22</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>238</v>
+        <v>179</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>232</v>
+        <v>72</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>233</v>
+        <v>139</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>228</v>
+        <v>33</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>237</v>
+        <v>276</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>231</v>
+        <v>311</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>239</v>
+        <v>124</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>224</v>
+        <v>18</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>191</v>
+        <v>272</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>81</v>
+        <v>332</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>148</v>
+        <v>263</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>38</v>
+        <v>307</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>209</v>
+        <v>264</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>100</v>
+        <v>308</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>144</v>
+        <v>274</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>35</v>
+        <v>309</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>167</v>
+        <v>275</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>57</v>
+        <v>310</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>207</v>
+        <v>112</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>163</v>
+        <v>260</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>53</v>
+        <v>306</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>244</v>
+        <v>333</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>245</v>
+        <v>327</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>170</v>
+        <v>117</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>169</v>
+        <v>236</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>59</v>
+        <v>221</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>171</v>
+        <v>334</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>61</v>
+        <v>328</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>172</v>
+        <v>238</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>62</v>
+        <v>223</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>179</v>
+        <v>335</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>69</v>
+        <v>329</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>186</v>
+        <v>259</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>76</v>
+        <v>305</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>189</v>
+        <v>248</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>79</v>
+        <v>249</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>107</v>
+        <v>219</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>178</v>
+        <v>336</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>68</v>
+        <v>325</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>141</v>
+        <v>234</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>32</v>
+        <v>228</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>184</v>
+        <v>330</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>74</v>
+        <v>324</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>200</v>
+        <v>331</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>91</v>
+        <v>326</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>185</v>
+        <v>229</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>75</v>
+        <v>224</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>187</v>
+        <v>232</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>89</v>
+        <v>227</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>199</v>
+        <v>235</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>90</v>
+        <v>220</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>215</v>
+        <v>156</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>213</v>
+        <v>288</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>103</v>
+        <v>289</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>212</v>
+        <v>282</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>216</v>
+        <v>104</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>106</v>
+        <v>2</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>104</v>
+        <v>245</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>174</v>
+        <v>246</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>64</v>
+        <v>247</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>70</v>
+        <v>241</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>164</v>
+        <v>322</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>54</v>
+        <v>323</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>78</v>
@@ -2424,2619 +2726,2771 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>110</v>
+        <v>196</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>111</v>
+        <v>181</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>152</v>
+        <v>194</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>157</v>
+        <v>211</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>151</v>
+        <v>208</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>126</v>
+        <v>212</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>248</v>
+        <v>171</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>249</v>
+        <v>64</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>250</v>
+        <v>173</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>251</v>
+        <v>66</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>252</v>
+        <v>188</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>253</v>
+        <v>81</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136"/>
-      <c r="B136"/>
+      <c r="A136" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137"/>
-      <c r="B137"/>
+      <c r="A137" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138"/>
-      <c r="B138"/>
+      <c r="A138" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139"/>
-      <c r="B139"/>
+      <c r="A139" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140"/>
-      <c r="B140"/>
+      <c r="A140" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141"/>
-      <c r="B141"/>
+      <c r="A141" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142"/>
-      <c r="B142"/>
+      <c r="A142" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143"/>
-      <c r="B143"/>
+      <c r="A143" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144"/>
-      <c r="B144"/>
+      <c r="A144" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145"/>
-      <c r="B145"/>
+      <c r="A145" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146"/>
-      <c r="B146"/>
+      <c r="A146" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147"/>
-      <c r="B147"/>
+      <c r="A147" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148"/>
-      <c r="B148"/>
+      <c r="A148" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149"/>
-      <c r="B149"/>
+      <c r="A149" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150"/>
-      <c r="B150"/>
+      <c r="A150" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151"/>
-      <c r="B151"/>
+      <c r="A151" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152"/>
-      <c r="B152"/>
+      <c r="A152" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153"/>
-      <c r="B153"/>
+      <c r="A153" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>255</v>
+      </c>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154"/>
-      <c r="B154"/>
+      <c r="A154" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155"/>
-      <c r="B155"/>
+      <c r="A155" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156"/>
-      <c r="B156"/>
+      <c r="A156" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>317</v>
+      </c>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157"/>
-      <c r="B157"/>
+      <c r="A157" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158"/>
-      <c r="B158"/>
+      <c r="A158" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159"/>
-      <c r="B159"/>
+      <c r="A159" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160"/>
-      <c r="B160"/>
+      <c r="A160" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>313</v>
+      </c>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161"/>
-      <c r="B161"/>
+      <c r="A161" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>312</v>
+      </c>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162"/>
-      <c r="B162"/>
+      <c r="A162" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163"/>
-      <c r="B163"/>
+      <c r="A163" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164"/>
-      <c r="B164"/>
+      <c r="A164" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165"/>
-      <c r="B165"/>
+      <c r="A165" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166"/>
-      <c r="B166"/>
+      <c r="A166" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167"/>
-      <c r="B167"/>
+      <c r="A167" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168"/>
-      <c r="B168"/>
+      <c r="A168" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169"/>
-      <c r="B169"/>
+      <c r="A169" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170"/>
-      <c r="B170"/>
+      <c r="A170" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>314</v>
+      </c>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171"/>
-      <c r="B171"/>
+      <c r="A171" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172"/>
-      <c r="B172"/>
+      <c r="A172" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>321</v>
+      </c>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173"/>
-      <c r="B173"/>
+      <c r="A173" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174"/>
-      <c r="B174"/>
+      <c r="A174" s="2"/>
+      <c r="B174" s="2"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175"/>
-      <c r="B175"/>
+      <c r="A175" s="2"/>
+      <c r="B175" s="2"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176"/>
-      <c r="B176"/>
+      <c r="A176" s="2"/>
+      <c r="B176" s="2"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177"/>
-      <c r="B177"/>
+      <c r="A177" s="2"/>
+      <c r="B177" s="2"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178"/>
-      <c r="B178"/>
+      <c r="A178" s="2"/>
+      <c r="B178" s="2"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179"/>
-      <c r="B179"/>
+      <c r="A179" s="2"/>
+      <c r="B179" s="2"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180"/>
-      <c r="B180"/>
+      <c r="A180" s="2"/>
+      <c r="B180" s="2"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181"/>
-      <c r="B181"/>
+      <c r="A181" s="2"/>
+      <c r="B181" s="2"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182"/>
-      <c r="B182"/>
+      <c r="A182" s="2"/>
+      <c r="B182" s="2"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183"/>
-      <c r="B183"/>
+      <c r="A183" s="2"/>
+      <c r="B183" s="2"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184"/>
-      <c r="B184"/>
+      <c r="A184" s="2"/>
+      <c r="B184" s="2"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185"/>
-      <c r="B185"/>
+      <c r="A185" s="2"/>
+      <c r="B185" s="2"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186"/>
-      <c r="B186"/>
+      <c r="A186" s="2"/>
+      <c r="B186" s="2"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187"/>
-      <c r="B187"/>
+      <c r="A187" s="2"/>
+      <c r="B187" s="2"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188"/>
-      <c r="B188"/>
+      <c r="A188" s="2"/>
+      <c r="B188" s="2"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189"/>
-      <c r="B189"/>
+      <c r="A189" s="2"/>
+      <c r="B189" s="2"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190"/>
-      <c r="B190"/>
+      <c r="A190" s="2"/>
+      <c r="B190" s="2"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191"/>
-      <c r="B191"/>
+      <c r="A191" s="2"/>
+      <c r="B191" s="2"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192"/>
-      <c r="B192"/>
+      <c r="A192" s="2"/>
+      <c r="B192" s="2"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193"/>
-      <c r="B193"/>
+      <c r="A193" s="2"/>
+      <c r="B193" s="2"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194"/>
-      <c r="B194"/>
+      <c r="A194" s="2"/>
+      <c r="B194" s="2"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195"/>
-      <c r="B195"/>
+      <c r="A195" s="2"/>
+      <c r="B195" s="2"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196"/>
-      <c r="B196"/>
+      <c r="A196" s="2"/>
+      <c r="B196" s="2"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197"/>
-      <c r="B197"/>
+      <c r="A197" s="2"/>
+      <c r="B197" s="2"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198"/>
-      <c r="B198"/>
+      <c r="A198" s="2"/>
+      <c r="B198" s="2"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199"/>
-      <c r="B199"/>
+      <c r="A199" s="2"/>
+      <c r="B199" s="2"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200"/>
-      <c r="B200"/>
+      <c r="A200" s="2"/>
+      <c r="B200" s="2"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201"/>
-      <c r="B201"/>
+      <c r="A201" s="2"/>
+      <c r="B201" s="2"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202"/>
-      <c r="B202"/>
+      <c r="A202" s="2"/>
+      <c r="B202" s="2"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203"/>
-      <c r="B203"/>
+      <c r="A203" s="2"/>
+      <c r="B203" s="2"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204"/>
-      <c r="B204"/>
+      <c r="A204" s="2"/>
+      <c r="B204" s="2"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205"/>
-      <c r="B205"/>
+      <c r="A205" s="2"/>
+      <c r="B205" s="2"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206"/>
-      <c r="B206"/>
+      <c r="A206" s="2"/>
+      <c r="B206" s="2"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207"/>
-      <c r="B207"/>
+      <c r="A207" s="2"/>
+      <c r="B207" s="2"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208"/>
-      <c r="B208"/>
+      <c r="A208" s="2"/>
+      <c r="B208" s="2"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209"/>
-      <c r="B209"/>
+      <c r="A209" s="2"/>
+      <c r="B209" s="2"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210"/>
-      <c r="B210"/>
+      <c r="A210" s="2"/>
+      <c r="B210" s="2"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211"/>
-      <c r="B211"/>
+      <c r="A211" s="2"/>
+      <c r="B211" s="2"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212"/>
-      <c r="B212"/>
+      <c r="A212" s="2"/>
+      <c r="B212" s="2"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213"/>
-      <c r="B213"/>
+      <c r="A213" s="2"/>
+      <c r="B213" s="2"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214"/>
-      <c r="B214"/>
+      <c r="A214" s="2"/>
+      <c r="B214" s="2"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215"/>
-      <c r="B215"/>
+      <c r="A215" s="2"/>
+      <c r="B215" s="2"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216"/>
-      <c r="B216"/>
+      <c r="A216" s="2"/>
+      <c r="B216" s="2"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217"/>
-      <c r="B217"/>
+      <c r="A217" s="2"/>
+      <c r="B217" s="2"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218"/>
-      <c r="B218"/>
+      <c r="A218" s="2"/>
+      <c r="B218" s="2"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219"/>
-      <c r="B219"/>
+      <c r="A219" s="2"/>
+      <c r="B219" s="2"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220"/>
-      <c r="B220"/>
+      <c r="A220" s="2"/>
+      <c r="B220" s="2"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221"/>
-      <c r="B221"/>
+      <c r="A221" s="2"/>
+      <c r="B221" s="2"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222"/>
-      <c r="B222"/>
+      <c r="A222" s="2"/>
+      <c r="B222" s="2"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223"/>
-      <c r="B223"/>
+      <c r="A223" s="2"/>
+      <c r="B223" s="2"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224"/>
-      <c r="B224"/>
+      <c r="A224" s="2"/>
+      <c r="B224" s="2"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A225"/>
-      <c r="B225"/>
+      <c r="A225" s="2"/>
+      <c r="B225" s="2"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226"/>
-      <c r="B226"/>
+      <c r="A226" s="2"/>
+      <c r="B226" s="2"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227"/>
-      <c r="B227"/>
+      <c r="A227" s="2"/>
+      <c r="B227" s="2"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228"/>
-      <c r="B228"/>
+      <c r="A228" s="2"/>
+      <c r="B228" s="2"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229"/>
-      <c r="B229"/>
+      <c r="A229" s="2"/>
+      <c r="B229" s="2"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230"/>
-      <c r="B230"/>
+      <c r="A230" s="2"/>
+      <c r="B230" s="2"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231"/>
-      <c r="B231"/>
+      <c r="A231" s="2"/>
+      <c r="B231" s="2"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232"/>
-      <c r="B232"/>
+      <c r="A232" s="2"/>
+      <c r="B232" s="2"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233"/>
-      <c r="B233"/>
+      <c r="A233" s="2"/>
+      <c r="B233" s="2"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234"/>
-      <c r="B234"/>
+      <c r="A234" s="2"/>
+      <c r="B234" s="2"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235"/>
-      <c r="B235"/>
+      <c r="A235" s="2"/>
+      <c r="B235" s="2"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236"/>
-      <c r="B236"/>
+      <c r="A236" s="2"/>
+      <c r="B236" s="2"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237"/>
-      <c r="B237"/>
+      <c r="A237" s="2"/>
+      <c r="B237" s="2"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238"/>
-      <c r="B238"/>
+      <c r="A238" s="2"/>
+      <c r="B238" s="2"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239"/>
-      <c r="B239"/>
+      <c r="A239" s="2"/>
+      <c r="B239" s="2"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240"/>
-      <c r="B240"/>
+      <c r="A240" s="2"/>
+      <c r="B240" s="2"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241"/>
-      <c r="B241"/>
+      <c r="A241" s="2"/>
+      <c r="B241" s="2"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242"/>
-      <c r="B242"/>
+      <c r="A242" s="2"/>
+      <c r="B242" s="2"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243"/>
-      <c r="B243"/>
+      <c r="A243" s="2"/>
+      <c r="B243" s="2"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244"/>
-      <c r="B244"/>
+      <c r="A244" s="2"/>
+      <c r="B244" s="2"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245"/>
-      <c r="B245"/>
+      <c r="A245" s="2"/>
+      <c r="B245" s="2"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246"/>
-      <c r="B246"/>
+      <c r="A246" s="2"/>
+      <c r="B246" s="2"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A247"/>
-      <c r="B247"/>
+      <c r="A247" s="2"/>
+      <c r="B247" s="2"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248"/>
-      <c r="B248"/>
+      <c r="A248" s="2"/>
+      <c r="B248" s="2"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A249"/>
-      <c r="B249"/>
+      <c r="A249" s="2"/>
+      <c r="B249" s="2"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A250"/>
-      <c r="B250"/>
+      <c r="A250" s="2"/>
+      <c r="B250" s="2"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A251"/>
-      <c r="B251"/>
+      <c r="A251" s="2"/>
+      <c r="B251" s="2"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252"/>
-      <c r="B252"/>
+      <c r="A252" s="2"/>
+      <c r="B252" s="2"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253"/>
-      <c r="B253"/>
+      <c r="A253" s="2"/>
+      <c r="B253" s="2"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A254"/>
-      <c r="B254"/>
+      <c r="A254" s="2"/>
+      <c r="B254" s="2"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255"/>
-      <c r="B255"/>
+      <c r="A255" s="2"/>
+      <c r="B255" s="2"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256"/>
-      <c r="B256"/>
+      <c r="A256" s="2"/>
+      <c r="B256" s="2"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257"/>
-      <c r="B257"/>
+      <c r="A257" s="2"/>
+      <c r="B257" s="2"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A258"/>
-      <c r="B258"/>
+      <c r="A258" s="2"/>
+      <c r="B258" s="2"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A259"/>
-      <c r="B259"/>
+      <c r="A259" s="2"/>
+      <c r="B259" s="2"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A260"/>
-      <c r="B260"/>
+      <c r="A260" s="2"/>
+      <c r="B260" s="2"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A261"/>
-      <c r="B261"/>
+      <c r="A261" s="2"/>
+      <c r="B261" s="2"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A262"/>
-      <c r="B262"/>
+      <c r="A262" s="2"/>
+      <c r="B262" s="2"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A263"/>
-      <c r="B263"/>
+      <c r="A263" s="2"/>
+      <c r="B263" s="2"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A264"/>
-      <c r="B264"/>
+      <c r="A264" s="2"/>
+      <c r="B264" s="2"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A265"/>
-      <c r="B265"/>
+      <c r="A265" s="2"/>
+      <c r="B265" s="2"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A266"/>
-      <c r="B266"/>
+      <c r="A266" s="2"/>
+      <c r="B266" s="2"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A267"/>
-      <c r="B267"/>
+      <c r="A267" s="2"/>
+      <c r="B267" s="2"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A268"/>
-      <c r="B268"/>
+      <c r="A268" s="2"/>
+      <c r="B268" s="2"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A269"/>
-      <c r="B269"/>
+      <c r="A269" s="2"/>
+      <c r="B269" s="2"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A270"/>
-      <c r="B270"/>
+      <c r="A270" s="2"/>
+      <c r="B270" s="2"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271"/>
-      <c r="B271"/>
+      <c r="A271" s="2"/>
+      <c r="B271" s="2"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A272"/>
-      <c r="B272"/>
+      <c r="A272" s="2"/>
+      <c r="B272" s="2"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A273"/>
-      <c r="B273"/>
+      <c r="A273" s="2"/>
+      <c r="B273" s="2"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A274"/>
-      <c r="B274"/>
+      <c r="A274" s="2"/>
+      <c r="B274" s="2"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A275"/>
-      <c r="B275"/>
+      <c r="A275" s="2"/>
+      <c r="B275" s="2"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A276"/>
-      <c r="B276"/>
+      <c r="A276" s="2"/>
+      <c r="B276" s="2"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A277"/>
-      <c r="B277"/>
+      <c r="A277" s="2"/>
+      <c r="B277" s="2"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A278"/>
-      <c r="B278"/>
+      <c r="A278" s="2"/>
+      <c r="B278" s="2"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A279"/>
-      <c r="B279"/>
+      <c r="A279" s="2"/>
+      <c r="B279" s="2"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A280"/>
-      <c r="B280"/>
+      <c r="A280" s="2"/>
+      <c r="B280" s="2"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A281"/>
-      <c r="B281"/>
+      <c r="A281" s="2"/>
+      <c r="B281" s="2"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A282"/>
-      <c r="B282"/>
+      <c r="A282" s="2"/>
+      <c r="B282" s="2"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A283"/>
-      <c r="B283"/>
+      <c r="A283" s="2"/>
+      <c r="B283" s="2"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A284"/>
-      <c r="B284"/>
+      <c r="A284" s="2"/>
+      <c r="B284" s="2"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A285"/>
-      <c r="B285"/>
+      <c r="A285" s="2"/>
+      <c r="B285" s="2"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A286"/>
-      <c r="B286"/>
+      <c r="A286" s="2"/>
+      <c r="B286" s="2"/>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A287"/>
-      <c r="B287"/>
+      <c r="A287" s="2"/>
+      <c r="B287" s="2"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A288"/>
-      <c r="B288"/>
+      <c r="A288" s="2"/>
+      <c r="B288" s="2"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A289"/>
-      <c r="B289"/>
+      <c r="A289" s="2"/>
+      <c r="B289" s="2"/>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A290"/>
-      <c r="B290"/>
+      <c r="A290" s="2"/>
+      <c r="B290" s="2"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A291"/>
-      <c r="B291"/>
+      <c r="A291" s="2"/>
+      <c r="B291" s="2"/>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A292"/>
-      <c r="B292"/>
+      <c r="A292" s="2"/>
+      <c r="B292" s="2"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A293"/>
-      <c r="B293"/>
+      <c r="A293" s="2"/>
+      <c r="B293" s="2"/>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A294"/>
-      <c r="B294"/>
+      <c r="A294" s="2"/>
+      <c r="B294" s="2"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A295"/>
-      <c r="B295"/>
+      <c r="A295" s="2"/>
+      <c r="B295" s="2"/>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A296"/>
-      <c r="B296"/>
+      <c r="A296" s="2"/>
+      <c r="B296" s="2"/>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A297"/>
-      <c r="B297"/>
+      <c r="A297" s="2"/>
+      <c r="B297" s="2"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A298"/>
-      <c r="B298"/>
+      <c r="A298" s="2"/>
+      <c r="B298" s="2"/>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A299"/>
-      <c r="B299"/>
+      <c r="A299" s="2"/>
+      <c r="B299" s="2"/>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A300"/>
-      <c r="B300"/>
+      <c r="A300" s="2"/>
+      <c r="B300" s="2"/>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A301"/>
-      <c r="B301"/>
+      <c r="A301" s="2"/>
+      <c r="B301" s="2"/>
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A302"/>
-      <c r="B302"/>
+      <c r="A302" s="2"/>
+      <c r="B302" s="2"/>
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A303"/>
-      <c r="B303"/>
+      <c r="A303" s="2"/>
+      <c r="B303" s="2"/>
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A304"/>
-      <c r="B304"/>
+      <c r="A304" s="2"/>
+      <c r="B304" s="2"/>
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A305"/>
-      <c r="B305"/>
+      <c r="A305" s="2"/>
+      <c r="B305" s="2"/>
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A306"/>
-      <c r="B306"/>
+      <c r="A306" s="2"/>
+      <c r="B306" s="2"/>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A307"/>
-      <c r="B307"/>
+      <c r="A307" s="2"/>
+      <c r="B307" s="2"/>
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A308"/>
-      <c r="B308"/>
+      <c r="A308" s="2"/>
+      <c r="B308" s="2"/>
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A309"/>
-      <c r="B309"/>
+      <c r="A309" s="2"/>
+      <c r="B309" s="2"/>
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A310"/>
-      <c r="B310"/>
+      <c r="A310" s="2"/>
+      <c r="B310" s="2"/>
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A311"/>
-      <c r="B311"/>
+      <c r="A311" s="2"/>
+      <c r="B311" s="2"/>
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A312"/>
-      <c r="B312"/>
+      <c r="A312" s="2"/>
+      <c r="B312" s="2"/>
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A313"/>
-      <c r="B313"/>
+      <c r="A313" s="2"/>
+      <c r="B313" s="2"/>
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A314"/>
-      <c r="B314"/>
+      <c r="A314" s="2"/>
+      <c r="B314" s="2"/>
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A315"/>
-      <c r="B315"/>
+      <c r="A315" s="2"/>
+      <c r="B315" s="2"/>
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A316"/>
-      <c r="B316"/>
+      <c r="A316" s="2"/>
+      <c r="B316" s="2"/>
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A317"/>
-      <c r="B317"/>
+      <c r="A317" s="2"/>
+      <c r="B317" s="2"/>
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A318"/>
-      <c r="B318"/>
+      <c r="A318" s="2"/>
+      <c r="B318" s="2"/>
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A319"/>
-      <c r="B319"/>
+      <c r="A319" s="2"/>
+      <c r="B319" s="2"/>
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A320"/>
-      <c r="B320"/>
+      <c r="A320" s="2"/>
+      <c r="B320" s="2"/>
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A321"/>
-      <c r="B321"/>
+      <c r="A321" s="2"/>
+      <c r="B321" s="2"/>
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A322"/>
-      <c r="B322"/>
+      <c r="A322" s="2"/>
+      <c r="B322" s="2"/>
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A323"/>
-      <c r="B323"/>
+      <c r="A323" s="2"/>
+      <c r="B323" s="2"/>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A324"/>
-      <c r="B324"/>
+      <c r="A324" s="2"/>
+      <c r="B324" s="2"/>
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A325"/>
-      <c r="B325"/>
+      <c r="A325" s="2"/>
+      <c r="B325" s="2"/>
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A326"/>
-      <c r="B326"/>
+      <c r="A326" s="2"/>
+      <c r="B326" s="2"/>
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A327"/>
-      <c r="B327"/>
+      <c r="A327" s="2"/>
+      <c r="B327" s="2"/>
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A328"/>
-      <c r="B328"/>
+      <c r="A328" s="2"/>
+      <c r="B328" s="2"/>
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A329"/>
-      <c r="B329"/>
+      <c r="A329" s="2"/>
+      <c r="B329" s="2"/>
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A330"/>
-      <c r="B330"/>
+      <c r="A330" s="2"/>
+      <c r="B330" s="2"/>
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A331"/>
-      <c r="B331"/>
+      <c r="A331" s="2"/>
+      <c r="B331" s="2"/>
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A332"/>
-      <c r="B332"/>
+      <c r="A332" s="2"/>
+      <c r="B332" s="2"/>
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A333"/>
-      <c r="B333"/>
+      <c r="A333" s="2"/>
+      <c r="B333" s="2"/>
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A334"/>
-      <c r="B334"/>
+      <c r="A334" s="2"/>
+      <c r="B334" s="2"/>
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A335"/>
-      <c r="B335"/>
+      <c r="A335" s="2"/>
+      <c r="B335" s="2"/>
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A336"/>
-      <c r="B336"/>
+      <c r="A336" s="2"/>
+      <c r="B336" s="2"/>
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A337"/>
-      <c r="B337"/>
+      <c r="A337" s="2"/>
+      <c r="B337" s="2"/>
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A338"/>
-      <c r="B338"/>
+      <c r="A338" s="2"/>
+      <c r="B338" s="2"/>
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A339"/>
-      <c r="B339"/>
+      <c r="A339" s="2"/>
+      <c r="B339" s="2"/>
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A340"/>
-      <c r="B340"/>
+      <c r="A340" s="2"/>
+      <c r="B340" s="2"/>
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A341"/>
-      <c r="B341"/>
+      <c r="A341" s="2"/>
+      <c r="B341" s="2"/>
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A342"/>
-      <c r="B342"/>
+      <c r="A342" s="2"/>
+      <c r="B342" s="2"/>
       <c r="D342" s="1"/>
       <c r="E342" s="1"/>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A343"/>
-      <c r="B343"/>
+      <c r="A343" s="2"/>
+      <c r="B343" s="2"/>
       <c r="D343" s="1"/>
       <c r="E343" s="1"/>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A344"/>
-      <c r="B344"/>
+      <c r="A344" s="2"/>
+      <c r="B344" s="2"/>
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A345"/>
-      <c r="B345"/>
+      <c r="A345" s="2"/>
+      <c r="B345" s="2"/>
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A346"/>
-      <c r="B346"/>
+      <c r="A346" s="2"/>
+      <c r="B346" s="2"/>
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A347"/>
-      <c r="B347"/>
+      <c r="A347" s="2"/>
+      <c r="B347" s="2"/>
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A348"/>
-      <c r="B348"/>
+      <c r="A348" s="2"/>
+      <c r="B348" s="2"/>
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A349"/>
-      <c r="B349"/>
+      <c r="A349" s="2"/>
+      <c r="B349" s="2"/>
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A350"/>
-      <c r="B350"/>
+      <c r="A350" s="2"/>
+      <c r="B350" s="2"/>
       <c r="D350" s="1"/>
       <c r="E350" s="1"/>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A351"/>
-      <c r="B351"/>
+      <c r="A351" s="2"/>
+      <c r="B351" s="2"/>
       <c r="D351" s="1"/>
       <c r="E351" s="1"/>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A352"/>
-      <c r="B352"/>
+      <c r="A352" s="2"/>
+      <c r="B352" s="2"/>
       <c r="D352" s="1"/>
       <c r="E352" s="1"/>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A353"/>
-      <c r="B353"/>
+      <c r="A353" s="2"/>
+      <c r="B353" s="2"/>
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A354"/>
-      <c r="B354"/>
+      <c r="A354" s="2"/>
+      <c r="B354" s="2"/>
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A355"/>
-      <c r="B355"/>
+      <c r="A355" s="2"/>
+      <c r="B355" s="2"/>
       <c r="D355" s="1"/>
       <c r="E355" s="1"/>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A356"/>
-      <c r="B356"/>
+      <c r="A356" s="2"/>
+      <c r="B356" s="2"/>
       <c r="D356" s="1"/>
       <c r="E356" s="1"/>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A357"/>
-      <c r="B357"/>
+      <c r="A357" s="2"/>
+      <c r="B357" s="2"/>
       <c r="D357" s="1"/>
       <c r="E357" s="1"/>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A358"/>
-      <c r="B358"/>
+      <c r="A358" s="2"/>
+      <c r="B358" s="2"/>
       <c r="D358" s="1"/>
       <c r="E358" s="1"/>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A359"/>
-      <c r="B359"/>
+      <c r="A359" s="2"/>
+      <c r="B359" s="2"/>
       <c r="D359" s="1"/>
       <c r="E359" s="1"/>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A360"/>
-      <c r="B360"/>
+      <c r="A360" s="2"/>
+      <c r="B360" s="2"/>
       <c r="D360" s="1"/>
       <c r="E360" s="1"/>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A361"/>
-      <c r="B361"/>
+      <c r="A361" s="2"/>
+      <c r="B361" s="2"/>
       <c r="D361" s="1"/>
       <c r="E361" s="1"/>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A362"/>
-      <c r="B362"/>
+      <c r="A362" s="2"/>
+      <c r="B362" s="2"/>
       <c r="D362" s="1"/>
       <c r="E362" s="1"/>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A363"/>
-      <c r="B363"/>
+      <c r="A363" s="2"/>
+      <c r="B363" s="2"/>
       <c r="D363" s="1"/>
       <c r="E363" s="1"/>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A364"/>
-      <c r="B364"/>
+      <c r="A364" s="2"/>
+      <c r="B364" s="2"/>
       <c r="D364" s="1"/>
       <c r="E364" s="1"/>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A365"/>
-      <c r="B365"/>
+      <c r="A365" s="2"/>
+      <c r="B365" s="2"/>
       <c r="D365" s="1"/>
       <c r="E365" s="1"/>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A366"/>
-      <c r="B366"/>
+      <c r="A366" s="2"/>
+      <c r="B366" s="2"/>
       <c r="D366" s="1"/>
       <c r="E366" s="1"/>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A367"/>
-      <c r="B367"/>
+      <c r="A367" s="2"/>
+      <c r="B367" s="2"/>
       <c r="D367" s="1"/>
       <c r="E367" s="1"/>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A368"/>
-      <c r="B368"/>
+      <c r="A368" s="2"/>
+      <c r="B368" s="2"/>
       <c r="D368" s="1"/>
       <c r="E368" s="1"/>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A369"/>
-      <c r="B369"/>
+      <c r="A369" s="2"/>
+      <c r="B369" s="2"/>
       <c r="D369" s="1"/>
       <c r="E369" s="1"/>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A370"/>
-      <c r="B370"/>
+      <c r="A370" s="2"/>
+      <c r="B370" s="2"/>
       <c r="D370" s="1"/>
       <c r="E370" s="1"/>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A371"/>
-      <c r="B371"/>
+      <c r="A371" s="2"/>
+      <c r="B371" s="2"/>
       <c r="D371" s="1"/>
       <c r="E371" s="1"/>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A372"/>
-      <c r="B372"/>
+      <c r="A372" s="2"/>
+      <c r="B372" s="2"/>
       <c r="D372" s="1"/>
       <c r="E372" s="1"/>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A373"/>
-      <c r="B373"/>
+      <c r="A373" s="2"/>
+      <c r="B373" s="2"/>
       <c r="D373" s="1"/>
       <c r="E373" s="1"/>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A374"/>
-      <c r="B374"/>
+      <c r="A374" s="2"/>
+      <c r="B374" s="2"/>
       <c r="D374" s="1"/>
       <c r="E374" s="1"/>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A375"/>
-      <c r="B375"/>
+      <c r="A375" s="2"/>
+      <c r="B375" s="2"/>
       <c r="D375" s="1"/>
       <c r="E375" s="1"/>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A376"/>
-      <c r="B376"/>
+      <c r="A376" s="2"/>
+      <c r="B376" s="2"/>
       <c r="D376" s="1"/>
       <c r="E376" s="1"/>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A377"/>
-      <c r="B377"/>
+      <c r="A377" s="2"/>
+      <c r="B377" s="2"/>
       <c r="D377" s="1"/>
       <c r="E377" s="1"/>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A378"/>
-      <c r="B378"/>
+      <c r="A378" s="2"/>
+      <c r="B378" s="2"/>
       <c r="D378" s="1"/>
       <c r="E378" s="1"/>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A379"/>
-      <c r="B379"/>
+      <c r="A379" s="2"/>
+      <c r="B379" s="2"/>
       <c r="D379" s="1"/>
       <c r="E379" s="1"/>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A380"/>
-      <c r="B380"/>
+      <c r="A380" s="2"/>
+      <c r="B380" s="2"/>
       <c r="D380" s="1"/>
       <c r="E380" s="1"/>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A381"/>
-      <c r="B381"/>
+      <c r="A381" s="2"/>
+      <c r="B381" s="2"/>
       <c r="D381" s="1"/>
       <c r="E381" s="1"/>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A382"/>
-      <c r="B382"/>
+      <c r="A382" s="2"/>
+      <c r="B382" s="2"/>
       <c r="D382" s="1"/>
       <c r="E382" s="1"/>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A383"/>
-      <c r="B383"/>
+      <c r="A383" s="2"/>
+      <c r="B383" s="2"/>
       <c r="D383" s="1"/>
       <c r="E383" s="1"/>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A384"/>
-      <c r="B384"/>
+      <c r="A384" s="2"/>
+      <c r="B384" s="2"/>
       <c r="D384" s="1"/>
       <c r="E384" s="1"/>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A385"/>
-      <c r="B385"/>
+      <c r="A385" s="2"/>
+      <c r="B385" s="2"/>
       <c r="D385" s="1"/>
       <c r="E385" s="1"/>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A386"/>
-      <c r="B386"/>
+      <c r="A386" s="2"/>
+      <c r="B386" s="2"/>
       <c r="D386" s="1"/>
       <c r="E386" s="1"/>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A387"/>
-      <c r="B387"/>
+      <c r="A387" s="2"/>
+      <c r="B387" s="2"/>
       <c r="D387" s="1"/>
       <c r="E387" s="1"/>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A388"/>
-      <c r="B388"/>
+      <c r="A388" s="2"/>
+      <c r="B388" s="2"/>
       <c r="D388" s="1"/>
       <c r="E388" s="1"/>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A389"/>
-      <c r="B389"/>
+      <c r="A389" s="2"/>
+      <c r="B389" s="2"/>
       <c r="D389" s="1"/>
       <c r="E389" s="1"/>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A390"/>
-      <c r="B390"/>
+      <c r="A390" s="2"/>
+      <c r="B390" s="2"/>
       <c r="D390" s="1"/>
       <c r="E390" s="1"/>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A391"/>
-      <c r="B391"/>
+      <c r="A391" s="2"/>
+      <c r="B391" s="2"/>
       <c r="D391" s="1"/>
       <c r="E391" s="1"/>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A392"/>
-      <c r="B392"/>
+      <c r="A392" s="2"/>
+      <c r="B392" s="2"/>
       <c r="D392" s="1"/>
       <c r="E392" s="1"/>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A393"/>
-      <c r="B393"/>
+      <c r="A393" s="2"/>
+      <c r="B393" s="2"/>
       <c r="D393" s="1"/>
       <c r="E393" s="1"/>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A394"/>
-      <c r="B394"/>
+      <c r="A394" s="2"/>
+      <c r="B394" s="2"/>
       <c r="D394" s="1"/>
       <c r="E394" s="1"/>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A395"/>
-      <c r="B395"/>
+      <c r="A395" s="2"/>
+      <c r="B395" s="2"/>
       <c r="D395" s="1"/>
       <c r="E395" s="1"/>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A396"/>
-      <c r="B396"/>
+      <c r="A396" s="2"/>
+      <c r="B396" s="2"/>
       <c r="D396" s="1"/>
       <c r="E396" s="1"/>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A397"/>
-      <c r="B397"/>
+      <c r="A397" s="2"/>
+      <c r="B397" s="2"/>
       <c r="D397" s="1"/>
       <c r="E397" s="1"/>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A398"/>
-      <c r="B398"/>
+      <c r="A398" s="2"/>
+      <c r="B398" s="2"/>
       <c r="D398" s="1"/>
       <c r="E398" s="1"/>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A399"/>
-      <c r="B399"/>
+      <c r="A399" s="2"/>
+      <c r="B399" s="2"/>
       <c r="D399" s="1"/>
       <c r="E399" s="1"/>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A400"/>
-      <c r="B400"/>
+      <c r="A400" s="2"/>
+      <c r="B400" s="2"/>
       <c r="D400" s="1"/>
       <c r="E400" s="1"/>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A401"/>
-      <c r="B401"/>
+      <c r="A401" s="2"/>
+      <c r="B401" s="2"/>
       <c r="D401" s="1"/>
       <c r="E401" s="1"/>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A402"/>
-      <c r="B402"/>
+      <c r="A402" s="2"/>
+      <c r="B402" s="2"/>
       <c r="D402" s="1"/>
       <c r="E402" s="1"/>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A403"/>
-      <c r="B403"/>
+      <c r="A403" s="2"/>
+      <c r="B403" s="2"/>
       <c r="D403" s="1"/>
       <c r="E403" s="1"/>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A404"/>
-      <c r="B404"/>
+      <c r="A404" s="2"/>
+      <c r="B404" s="2"/>
       <c r="D404" s="1"/>
       <c r="E404" s="1"/>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A405"/>
-      <c r="B405"/>
+      <c r="A405" s="2"/>
+      <c r="B405" s="2"/>
       <c r="D405" s="1"/>
       <c r="E405" s="1"/>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A406"/>
-      <c r="B406"/>
+      <c r="A406" s="2"/>
+      <c r="B406" s="2"/>
       <c r="D406" s="1"/>
       <c r="E406" s="1"/>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A407"/>
-      <c r="B407"/>
+      <c r="A407" s="2"/>
+      <c r="B407" s="2"/>
       <c r="D407" s="1"/>
       <c r="E407" s="1"/>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A408"/>
-      <c r="B408"/>
+      <c r="A408" s="2"/>
+      <c r="B408" s="2"/>
       <c r="D408" s="1"/>
       <c r="E408" s="1"/>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A409"/>
-      <c r="B409"/>
+      <c r="A409" s="2"/>
+      <c r="B409" s="2"/>
       <c r="D409" s="1"/>
       <c r="E409" s="1"/>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A410"/>
-      <c r="B410"/>
+      <c r="A410" s="2"/>
+      <c r="B410" s="2"/>
       <c r="D410" s="1"/>
       <c r="E410" s="1"/>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A411"/>
-      <c r="B411"/>
+      <c r="A411" s="2"/>
+      <c r="B411" s="2"/>
       <c r="D411" s="1"/>
       <c r="E411" s="1"/>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A412"/>
-      <c r="B412"/>
+      <c r="A412" s="2"/>
+      <c r="B412" s="2"/>
       <c r="D412" s="1"/>
       <c r="E412" s="1"/>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A413"/>
-      <c r="B413"/>
+      <c r="A413" s="2"/>
+      <c r="B413" s="2"/>
       <c r="D413" s="1"/>
       <c r="E413" s="1"/>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A414"/>
-      <c r="B414"/>
+      <c r="A414" s="2"/>
+      <c r="B414" s="2"/>
       <c r="D414" s="1"/>
       <c r="E414" s="1"/>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A415"/>
-      <c r="B415"/>
+      <c r="A415" s="2"/>
+      <c r="B415" s="2"/>
       <c r="D415" s="1"/>
       <c r="E415" s="1"/>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A416"/>
-      <c r="B416"/>
+      <c r="A416" s="2"/>
+      <c r="B416" s="2"/>
       <c r="D416" s="1"/>
       <c r="E416" s="1"/>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A417"/>
-      <c r="B417"/>
+      <c r="A417" s="2"/>
+      <c r="B417" s="2"/>
       <c r="D417" s="1"/>
       <c r="E417" s="1"/>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A418"/>
-      <c r="B418"/>
+      <c r="A418" s="2"/>
+      <c r="B418" s="2"/>
       <c r="D418" s="1"/>
       <c r="E418" s="1"/>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A419"/>
-      <c r="B419"/>
+      <c r="A419" s="2"/>
+      <c r="B419" s="2"/>
       <c r="D419" s="1"/>
       <c r="E419" s="1"/>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A420"/>
-      <c r="B420"/>
+      <c r="A420" s="2"/>
+      <c r="B420" s="2"/>
       <c r="D420" s="1"/>
       <c r="E420" s="1"/>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A421"/>
-      <c r="B421"/>
+      <c r="A421" s="2"/>
+      <c r="B421" s="2"/>
       <c r="D421" s="1"/>
       <c r="E421" s="1"/>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A422"/>
-      <c r="B422"/>
+      <c r="A422" s="2"/>
+      <c r="B422" s="2"/>
       <c r="D422" s="1"/>
       <c r="E422" s="1"/>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A423"/>
-      <c r="B423"/>
+      <c r="A423" s="2"/>
+      <c r="B423" s="2"/>
       <c r="D423" s="1"/>
       <c r="E423" s="1"/>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A424"/>
-      <c r="B424"/>
+      <c r="A424" s="2"/>
+      <c r="B424" s="2"/>
       <c r="D424" s="1"/>
       <c r="E424" s="1"/>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A425"/>
-      <c r="B425"/>
+      <c r="A425" s="2"/>
+      <c r="B425" s="2"/>
       <c r="D425" s="1"/>
       <c r="E425" s="1"/>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A426"/>
-      <c r="B426"/>
+      <c r="A426" s="2"/>
+      <c r="B426" s="2"/>
       <c r="D426" s="1"/>
       <c r="E426" s="1"/>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A427"/>
-      <c r="B427"/>
+      <c r="A427" s="2"/>
+      <c r="B427" s="2"/>
       <c r="D427" s="1"/>
       <c r="E427" s="1"/>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A428"/>
-      <c r="B428"/>
+      <c r="A428" s="2"/>
+      <c r="B428" s="2"/>
       <c r="D428" s="1"/>
       <c r="E428" s="1"/>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A429"/>
-      <c r="B429"/>
+      <c r="A429" s="2"/>
+      <c r="B429" s="2"/>
       <c r="D429" s="1"/>
       <c r="E429" s="1"/>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A430"/>
-      <c r="B430"/>
+      <c r="A430" s="2"/>
+      <c r="B430" s="2"/>
       <c r="D430" s="1"/>
       <c r="E430" s="1"/>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A431"/>
-      <c r="B431"/>
+      <c r="A431" s="2"/>
+      <c r="B431" s="2"/>
       <c r="D431" s="1"/>
       <c r="E431" s="1"/>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A432"/>
-      <c r="B432"/>
+      <c r="A432" s="2"/>
+      <c r="B432" s="2"/>
       <c r="D432" s="1"/>
       <c r="E432" s="1"/>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A433"/>
-      <c r="B433"/>
+      <c r="A433" s="2"/>
+      <c r="B433" s="2"/>
       <c r="D433" s="1"/>
       <c r="E433" s="1"/>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A434"/>
-      <c r="B434"/>
+      <c r="A434" s="2"/>
+      <c r="B434" s="2"/>
       <c r="D434" s="1"/>
       <c r="E434" s="1"/>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A435"/>
-      <c r="B435"/>
+      <c r="A435" s="2"/>
+      <c r="B435" s="2"/>
       <c r="D435" s="1"/>
       <c r="E435" s="1"/>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A436"/>
-      <c r="B436"/>
+      <c r="A436" s="2"/>
+      <c r="B436" s="2"/>
       <c r="D436" s="1"/>
       <c r="E436" s="1"/>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A437"/>
-      <c r="B437"/>
+      <c r="A437" s="2"/>
+      <c r="B437" s="2"/>
       <c r="D437" s="1"/>
       <c r="E437" s="1"/>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A438"/>
-      <c r="B438"/>
+      <c r="A438" s="2"/>
+      <c r="B438" s="2"/>
       <c r="D438" s="1"/>
       <c r="E438" s="1"/>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A439"/>
-      <c r="B439"/>
+      <c r="A439" s="2"/>
+      <c r="B439" s="2"/>
       <c r="D439" s="1"/>
       <c r="E439" s="1"/>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A440"/>
-      <c r="B440"/>
+      <c r="A440" s="2"/>
+      <c r="B440" s="2"/>
       <c r="D440" s="1"/>
       <c r="E440" s="1"/>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A441"/>
-      <c r="B441"/>
+      <c r="A441" s="2"/>
+      <c r="B441" s="2"/>
       <c r="D441" s="1"/>
       <c r="E441" s="1"/>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A442"/>
-      <c r="B442"/>
+      <c r="A442" s="2"/>
+      <c r="B442" s="2"/>
       <c r="D442" s="1"/>
       <c r="E442" s="1"/>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A443"/>
-      <c r="B443"/>
+      <c r="A443" s="2"/>
+      <c r="B443" s="2"/>
       <c r="D443" s="1"/>
       <c r="E443" s="1"/>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A444"/>
-      <c r="B444"/>
+      <c r="A444" s="2"/>
+      <c r="B444" s="2"/>
       <c r="D444" s="1"/>
       <c r="E444" s="1"/>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A445"/>
-      <c r="B445"/>
+      <c r="A445" s="2"/>
+      <c r="B445" s="2"/>
       <c r="D445" s="1"/>
       <c r="E445" s="1"/>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A446"/>
-      <c r="B446"/>
+      <c r="A446" s="2"/>
+      <c r="B446" s="2"/>
       <c r="D446" s="1"/>
       <c r="E446" s="1"/>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A447"/>
-      <c r="B447"/>
+      <c r="A447" s="2"/>
+      <c r="B447" s="2"/>
       <c r="D447" s="1"/>
       <c r="E447" s="1"/>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A448"/>
-      <c r="B448"/>
+      <c r="A448" s="2"/>
+      <c r="B448" s="2"/>
       <c r="D448" s="1"/>
       <c r="E448" s="1"/>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A449"/>
-      <c r="B449"/>
+      <c r="A449" s="2"/>
+      <c r="B449" s="2"/>
       <c r="D449" s="1"/>
       <c r="E449" s="1"/>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A450"/>
-      <c r="B450"/>
+      <c r="A450" s="2"/>
+      <c r="B450" s="2"/>
       <c r="D450" s="1"/>
       <c r="E450" s="1"/>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A451"/>
-      <c r="B451"/>
+      <c r="A451" s="2"/>
+      <c r="B451" s="2"/>
       <c r="D451" s="1"/>
       <c r="E451" s="1"/>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A452"/>
-      <c r="B452"/>
+      <c r="A452" s="2"/>
+      <c r="B452" s="2"/>
       <c r="D452" s="1"/>
       <c r="E452" s="1"/>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A453"/>
-      <c r="B453"/>
+      <c r="A453" s="2"/>
+      <c r="B453" s="2"/>
       <c r="D453" s="1"/>
       <c r="E453" s="1"/>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A454"/>
-      <c r="B454"/>
+      <c r="A454" s="2"/>
+      <c r="B454" s="2"/>
       <c r="D454" s="1"/>
       <c r="E454" s="1"/>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A455"/>
-      <c r="B455"/>
+      <c r="A455" s="2"/>
+      <c r="B455" s="2"/>
       <c r="D455" s="1"/>
       <c r="E455" s="1"/>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A456"/>
-      <c r="B456"/>
+      <c r="A456" s="2"/>
+      <c r="B456" s="2"/>
       <c r="D456" s="1"/>
       <c r="E456" s="1"/>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A457"/>
-      <c r="B457"/>
+      <c r="A457" s="2"/>
+      <c r="B457" s="2"/>
       <c r="D457" s="1"/>
       <c r="E457" s="1"/>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A458"/>
-      <c r="B458"/>
+      <c r="A458" s="2"/>
+      <c r="B458" s="2"/>
       <c r="D458" s="1"/>
       <c r="E458" s="1"/>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A459"/>
-      <c r="B459"/>
+      <c r="A459" s="2"/>
+      <c r="B459" s="2"/>
       <c r="D459" s="1"/>
       <c r="E459" s="1"/>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A460"/>
-      <c r="B460"/>
+      <c r="A460" s="2"/>
+      <c r="B460" s="2"/>
       <c r="D460" s="1"/>
       <c r="E460" s="1"/>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A461"/>
-      <c r="B461"/>
+      <c r="A461" s="2"/>
+      <c r="B461" s="2"/>
       <c r="D461" s="1"/>
       <c r="E461" s="1"/>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A462"/>
-      <c r="B462"/>
+      <c r="A462" s="2"/>
+      <c r="B462" s="2"/>
       <c r="D462" s="1"/>
       <c r="E462" s="1"/>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A463"/>
-      <c r="B463"/>
+      <c r="A463" s="2"/>
+      <c r="B463" s="2"/>
       <c r="D463" s="1"/>
       <c r="E463" s="1"/>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A464"/>
-      <c r="B464"/>
+      <c r="A464" s="2"/>
+      <c r="B464" s="2"/>
       <c r="D464" s="1"/>
       <c r="E464" s="1"/>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A465"/>
-      <c r="B465"/>
+      <c r="A465" s="2"/>
+      <c r="B465" s="2"/>
       <c r="D465" s="1"/>
       <c r="E465" s="1"/>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A466"/>
-      <c r="B466"/>
+      <c r="A466" s="2"/>
+      <c r="B466" s="2"/>
       <c r="D466" s="1"/>
       <c r="E466" s="1"/>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A467"/>
-      <c r="B467"/>
+      <c r="A467" s="2"/>
+      <c r="B467" s="2"/>
       <c r="D467" s="1"/>
       <c r="E467" s="1"/>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A468"/>
-      <c r="B468"/>
+      <c r="A468" s="2"/>
+      <c r="B468" s="2"/>
       <c r="D468" s="1"/>
       <c r="E468" s="1"/>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A469"/>
-      <c r="B469"/>
+      <c r="A469" s="2"/>
+      <c r="B469" s="2"/>
       <c r="D469" s="1"/>
       <c r="E469" s="1"/>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A470"/>
-      <c r="B470"/>
+      <c r="A470" s="2"/>
+      <c r="B470" s="2"/>
       <c r="D470" s="1"/>
       <c r="E470" s="1"/>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A471"/>
-      <c r="B471"/>
+      <c r="A471" s="2"/>
+      <c r="B471" s="2"/>
       <c r="D471" s="1"/>
       <c r="E471" s="1"/>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A472"/>
-      <c r="B472"/>
+      <c r="A472" s="2"/>
+      <c r="B472" s="2"/>
       <c r="D472" s="1"/>
       <c r="E472" s="1"/>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A473"/>
-      <c r="B473"/>
+      <c r="A473" s="2"/>
+      <c r="B473" s="2"/>
       <c r="D473" s="1"/>
       <c r="E473" s="1"/>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A474"/>
-      <c r="B474"/>
+      <c r="A474" s="2"/>
+      <c r="B474" s="2"/>
       <c r="D474" s="1"/>
       <c r="E474" s="1"/>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A475"/>
-      <c r="B475"/>
+      <c r="A475" s="2"/>
+      <c r="B475" s="2"/>
       <c r="D475" s="1"/>
       <c r="E475" s="1"/>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A476"/>
-      <c r="B476"/>
+      <c r="A476" s="2"/>
+      <c r="B476" s="2"/>
       <c r="D476" s="1"/>
       <c r="E476" s="1"/>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A477"/>
-      <c r="B477"/>
+      <c r="A477" s="2"/>
+      <c r="B477" s="2"/>
       <c r="D477" s="1"/>
       <c r="E477" s="1"/>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A478"/>
-      <c r="B478"/>
+      <c r="A478" s="2"/>
+      <c r="B478" s="2"/>
       <c r="D478" s="1"/>
       <c r="E478" s="1"/>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A479"/>
-      <c r="B479"/>
+      <c r="A479" s="2"/>
+      <c r="B479" s="2"/>
       <c r="D479" s="1"/>
       <c r="E479" s="1"/>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A480"/>
-      <c r="B480"/>
+      <c r="A480" s="2"/>
+      <c r="B480" s="2"/>
       <c r="D480" s="1"/>
       <c r="E480" s="1"/>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A481"/>
-      <c r="B481"/>
+      <c r="A481" s="2"/>
+      <c r="B481" s="2"/>
       <c r="D481" s="1"/>
       <c r="E481" s="1"/>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A482"/>
-      <c r="B482"/>
+      <c r="A482" s="2"/>
+      <c r="B482" s="2"/>
       <c r="D482" s="1"/>
       <c r="E482" s="1"/>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A483"/>
-      <c r="B483"/>
+      <c r="A483" s="2"/>
+      <c r="B483" s="2"/>
       <c r="D483" s="1"/>
       <c r="E483" s="1"/>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A484"/>
-      <c r="B484"/>
+      <c r="A484" s="2"/>
+      <c r="B484" s="2"/>
       <c r="D484" s="1"/>
       <c r="E484" s="1"/>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A485"/>
-      <c r="B485"/>
+      <c r="A485" s="2"/>
+      <c r="B485" s="2"/>
       <c r="D485" s="1"/>
       <c r="E485" s="1"/>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A486"/>
-      <c r="B486"/>
+      <c r="A486" s="2"/>
+      <c r="B486" s="2"/>
       <c r="D486" s="1"/>
       <c r="E486" s="1"/>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A487"/>
-      <c r="B487"/>
+      <c r="A487" s="2"/>
+      <c r="B487" s="2"/>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A488"/>
-      <c r="B488"/>
+      <c r="A488" s="2"/>
+      <c r="B488" s="2"/>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A489"/>
-      <c r="B489"/>
+      <c r="A489" s="2"/>
+      <c r="B489" s="2"/>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A490"/>
-      <c r="B490"/>
+      <c r="A490" s="2"/>
+      <c r="B490" s="2"/>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A491"/>
-      <c r="B491"/>
+      <c r="A491" s="2"/>
+      <c r="B491" s="2"/>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A492"/>
-      <c r="B492"/>
+      <c r="A492" s="2"/>
+      <c r="B492" s="2"/>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A493"/>
-      <c r="B493"/>
+      <c r="A493" s="2"/>
+      <c r="B493" s="2"/>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A494"/>
-      <c r="B494"/>
+      <c r="A494" s="2"/>
+      <c r="B494" s="2"/>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A495"/>
-      <c r="B495"/>
+      <c r="A495" s="2"/>
+      <c r="B495" s="2"/>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A496"/>
-      <c r="B496"/>
+      <c r="A496" s="2"/>
+      <c r="B496" s="2"/>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A497"/>
-      <c r="B497"/>
+      <c r="A497" s="2"/>
+      <c r="B497" s="2"/>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A498"/>
-      <c r="B498"/>
+      <c r="A498" s="2"/>
+      <c r="B498" s="2"/>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A499"/>
-      <c r="B499"/>
+      <c r="A499" s="2"/>
+      <c r="B499" s="2"/>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A500"/>
-      <c r="B500"/>
+      <c r="A500" s="2"/>
+      <c r="B500" s="2"/>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A501"/>
-      <c r="B501"/>
+      <c r="A501" s="2"/>
+      <c r="B501" s="2"/>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A502"/>
-      <c r="B502"/>
+      <c r="A502" s="2"/>
+      <c r="B502" s="2"/>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A503"/>
-      <c r="B503"/>
+      <c r="A503" s="2"/>
+      <c r="B503" s="2"/>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A504"/>
-      <c r="B504"/>
+      <c r="A504" s="2"/>
+      <c r="B504" s="2"/>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A505"/>
-      <c r="B505"/>
+      <c r="A505" s="2"/>
+      <c r="B505" s="2"/>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A506"/>
-      <c r="B506"/>
+      <c r="A506" s="2"/>
+      <c r="B506" s="2"/>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A507"/>
-      <c r="B507"/>
+      <c r="A507" s="2"/>
+      <c r="B507" s="2"/>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A508"/>
-      <c r="B508"/>
+      <c r="A508" s="2"/>
+      <c r="B508" s="2"/>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A509"/>
-      <c r="B509"/>
+      <c r="A509" s="2"/>
+      <c r="B509" s="2"/>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A510"/>
-      <c r="B510"/>
+      <c r="A510" s="2"/>
+      <c r="B510" s="2"/>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A511"/>
-      <c r="B511"/>
+      <c r="A511" s="2"/>
+      <c r="B511" s="2"/>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A512"/>
-      <c r="B512"/>
+      <c r="A512" s="2"/>
+      <c r="B512" s="2"/>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A513"/>
-      <c r="B513"/>
+      <c r="A513" s="2"/>
+      <c r="B513" s="2"/>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A514"/>
-      <c r="B514"/>
+      <c r="A514" s="2"/>
+      <c r="B514" s="2"/>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A515"/>
-      <c r="B515"/>
+      <c r="A515" s="2"/>
+      <c r="B515" s="2"/>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A516"/>
-      <c r="B516"/>
+      <c r="A516" s="2"/>
+      <c r="B516" s="2"/>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A517"/>
-      <c r="B517"/>
+      <c r="A517" s="2"/>
+      <c r="B517" s="2"/>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A518"/>
-      <c r="B518"/>
+      <c r="A518" s="2"/>
+      <c r="B518" s="2"/>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A519"/>
-      <c r="B519"/>
+      <c r="A519" s="2"/>
+      <c r="B519" s="2"/>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A520"/>
-      <c r="B520"/>
+      <c r="A520" s="2"/>
+      <c r="B520" s="2"/>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A521"/>
-      <c r="B521"/>
+      <c r="A521" s="2"/>
+      <c r="B521" s="2"/>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A522"/>
-      <c r="B522"/>
+      <c r="A522" s="2"/>
+      <c r="B522" s="2"/>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A523"/>
-      <c r="B523"/>
+      <c r="A523" s="2"/>
+      <c r="B523" s="2"/>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A524"/>
-      <c r="B524"/>
+      <c r="A524" s="2"/>
+      <c r="B524" s="2"/>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A525"/>
-      <c r="B525"/>
+      <c r="A525" s="2"/>
+      <c r="B525" s="2"/>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A526"/>
-      <c r="B526"/>
+      <c r="A526" s="2"/>
+      <c r="B526" s="2"/>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A527"/>
-      <c r="B527"/>
+      <c r="A527" s="2"/>
+      <c r="B527" s="2"/>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A528"/>
-      <c r="B528"/>
+      <c r="A528" s="2"/>
+      <c r="B528" s="2"/>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A529"/>
-      <c r="B529"/>
+      <c r="A529" s="2"/>
+      <c r="B529" s="2"/>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A530"/>
-      <c r="B530"/>
+      <c r="A530" s="2"/>
+      <c r="B530" s="2"/>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A531"/>
-      <c r="B531"/>
+      <c r="A531" s="2"/>
+      <c r="B531" s="2"/>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A532"/>
-      <c r="B532"/>
+      <c r="A532" s="2"/>
+      <c r="B532" s="2"/>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A533"/>
-      <c r="B533"/>
+      <c r="A533" s="2"/>
+      <c r="B533" s="2"/>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A534"/>
-      <c r="B534"/>
+      <c r="A534" s="2"/>
+      <c r="B534" s="2"/>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A535"/>
-      <c r="B535"/>
+      <c r="A535" s="2"/>
+      <c r="B535" s="2"/>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A536"/>
-      <c r="B536"/>
+      <c r="A536" s="2"/>
+      <c r="B536" s="2"/>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A537"/>
-      <c r="B537"/>
+      <c r="A537" s="2"/>
+      <c r="B537" s="2"/>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A538"/>
-      <c r="B538"/>
+      <c r="A538" s="2"/>
+      <c r="B538" s="2"/>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A539"/>
-      <c r="B539"/>
+      <c r="A539" s="2"/>
+      <c r="B539" s="2"/>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A540"/>
-      <c r="B540"/>
+      <c r="A540" s="2"/>
+      <c r="B540" s="2"/>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A541"/>
-      <c r="B541"/>
+      <c r="A541" s="2"/>
+      <c r="B541" s="2"/>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A542"/>
-      <c r="B542"/>
+      <c r="A542" s="2"/>
+      <c r="B542" s="2"/>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A543"/>
-      <c r="B543"/>
+      <c r="A543" s="2"/>
+      <c r="B543" s="2"/>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A544"/>
-      <c r="B544"/>
+      <c r="A544" s="2"/>
+      <c r="B544" s="2"/>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A545"/>
-      <c r="B545"/>
+      <c r="A545" s="2"/>
+      <c r="B545" s="2"/>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A546"/>
-      <c r="B546"/>
+      <c r="A546" s="2"/>
+      <c r="B546" s="2"/>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A547"/>
-      <c r="B547"/>
+      <c r="A547" s="2"/>
+      <c r="B547" s="2"/>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A548"/>
-      <c r="B548"/>
+      <c r="A548" s="2"/>
+      <c r="B548" s="2"/>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A549"/>
-      <c r="B549"/>
+      <c r="A549" s="2"/>
+      <c r="B549" s="2"/>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A550"/>
-      <c r="B550"/>
+      <c r="A550" s="2"/>
+      <c r="B550" s="2"/>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A551"/>
-      <c r="B551"/>
+      <c r="A551" s="2"/>
+      <c r="B551" s="2"/>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A552"/>
-      <c r="B552"/>
+      <c r="A552" s="2"/>
+      <c r="B552" s="2"/>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A553"/>
-      <c r="B553"/>
+      <c r="A553" s="2"/>
+      <c r="B553" s="2"/>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A554"/>
-      <c r="B554"/>
+      <c r="A554" s="2"/>
+      <c r="B554" s="2"/>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A555"/>
-      <c r="B555"/>
+      <c r="A555" s="2"/>
+      <c r="B555" s="2"/>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A556"/>
-      <c r="B556"/>
+      <c r="A556" s="2"/>
+      <c r="B556" s="2"/>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A557"/>
-      <c r="B557"/>
+      <c r="A557" s="2"/>
+      <c r="B557" s="2"/>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A558"/>
-      <c r="B558"/>
+      <c r="A558" s="2"/>
+      <c r="B558" s="2"/>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A559"/>
-      <c r="B559"/>
+      <c r="A559" s="2"/>
+      <c r="B559" s="2"/>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A560"/>
-      <c r="B560"/>
+      <c r="A560" s="2"/>
+      <c r="B560" s="2"/>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A561"/>
-      <c r="B561"/>
+      <c r="A561" s="2"/>
+      <c r="B561" s="2"/>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A562"/>
-      <c r="B562"/>
+      <c r="A562" s="2"/>
+      <c r="B562" s="2"/>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A563"/>
-      <c r="B563"/>
+      <c r="A563" s="2"/>
+      <c r="B563" s="2"/>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A564"/>
-      <c r="B564"/>
+      <c r="A564" s="2"/>
+      <c r="B564" s="2"/>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A565"/>
-      <c r="B565"/>
+      <c r="A565" s="2"/>
+      <c r="B565" s="2"/>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A566"/>
-      <c r="B566"/>
+      <c r="A566" s="2"/>
+      <c r="B566" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MP69Equivalents.xlsx
+++ b/MP69Equivalents.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Desktop\MarioParty69Java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867CF83F-D8B4-42DF-B762-BCE2A03438F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACDC76B-B93A-4305-8127-A1A536DAF273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29685" yWindow="1890" windowWidth="6090" windowHeight="11250" xr2:uid="{EB0D05C6-5931-48AA-8F53-EB8D485F66F4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EB0D05C6-5931-48AA-8F53-EB8D485F66F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$B$565</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$B$549</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="686">
   <si>
     <t>mp7 reference</t>
   </si>
@@ -971,9 +971,6 @@
     <t>8003D224</t>
   </si>
   <si>
-    <t>8003B234</t>
-  </si>
-  <si>
     <t>802F2CA0</t>
   </si>
   <si>
@@ -1047,6 +1044,1056 @@
   </si>
   <si>
     <t>80071A8C</t>
+  </si>
+  <si>
+    <t>8003FBA4</t>
+  </si>
+  <si>
+    <t>80009B08</t>
+  </si>
+  <si>
+    <t>800286E8</t>
+  </si>
+  <si>
+    <t>80032428</t>
+  </si>
+  <si>
+    <t>80040588</t>
+  </si>
+  <si>
+    <t>80293078</t>
+  </si>
+  <si>
+    <t>80292FB8</t>
+  </si>
+  <si>
+    <t>80292EF8</t>
+  </si>
+  <si>
+    <t>8002E930</t>
+  </si>
+  <si>
+    <t>802F2F1A</t>
+  </si>
+  <si>
+    <t>8002A0D4</t>
+  </si>
+  <si>
+    <t>8002F394</t>
+  </si>
+  <si>
+    <t>8002EC94</t>
+  </si>
+  <si>
+    <t>800292DC</t>
+  </si>
+  <si>
+    <t>8002F3BC</t>
+  </si>
+  <si>
+    <t>80009B04</t>
+  </si>
+  <si>
+    <t>80027AF0</t>
+  </si>
+  <si>
+    <t>800285BC</t>
+  </si>
+  <si>
+    <t>80028EA4</t>
+  </si>
+  <si>
+    <t>8002C95C</t>
+  </si>
+  <si>
+    <t>8002CCC0</t>
+  </si>
+  <si>
+    <t>8002D3C4</t>
+  </si>
+  <si>
+    <t>8002D3EC</t>
+  </si>
+  <si>
+    <t>80030458</t>
+  </si>
+  <si>
+    <t>8003DAA4</t>
+  </si>
+  <si>
+    <t>8003E488</t>
+  </si>
+  <si>
+    <t>80266A58</t>
+  </si>
+  <si>
+    <t>80266B18</t>
+  </si>
+  <si>
+    <t>80266BD8</t>
+  </si>
+  <si>
+    <t>8004D6C4</t>
+  </si>
+  <si>
+    <t>80051024</t>
+  </si>
+  <si>
+    <t>802BF788</t>
+  </si>
+  <si>
+    <t>80050C60</t>
+  </si>
+  <si>
+    <t>80268EC0</t>
+  </si>
+  <si>
+    <t>80266400</t>
+  </si>
+  <si>
+    <t>8004D44C</t>
+  </si>
+  <si>
+    <t>802C0364</t>
+  </si>
+  <si>
+    <t>80050F6C</t>
+  </si>
+  <si>
+    <t>8005278C</t>
+  </si>
+  <si>
+    <t>802C0000</t>
+  </si>
+  <si>
+    <t>80050D88</t>
+  </si>
+  <si>
+    <t>800F2ABC</t>
+  </si>
+  <si>
+    <t>8004D730</t>
+  </si>
+  <si>
+    <t>80050970</t>
+  </si>
+  <si>
+    <t>80051030</t>
+  </si>
+  <si>
+    <t>80265E30</t>
+  </si>
+  <si>
+    <t>8004C5BC</t>
+  </si>
+  <si>
+    <t>80050F98</t>
+  </si>
+  <si>
+    <t>800F8FDC</t>
+  </si>
+  <si>
+    <t>80292328</t>
+  </si>
+  <si>
+    <t>802F2288</t>
+  </si>
+  <si>
+    <t>802917E0</t>
+  </si>
+  <si>
+    <t>80295360</t>
+  </si>
+  <si>
+    <t>802F2CC0</t>
+  </si>
+  <si>
+    <t>802F3058</t>
+  </si>
+  <si>
+    <t>8004DD44</t>
+  </si>
+  <si>
+    <t>800520E8</t>
+  </si>
+  <si>
+    <t>800523F4</t>
+  </si>
+  <si>
+    <t>80051DF8</t>
+  </si>
+  <si>
+    <t>8004ED68</t>
+  </si>
+  <si>
+    <t>800524B8</t>
+  </si>
+  <si>
+    <t>80053C1C</t>
+  </si>
+  <si>
+    <t>8004EA84</t>
+  </si>
+  <si>
+    <t>8004ECFC</t>
+  </si>
+  <si>
+    <t>80052210</t>
+  </si>
+  <si>
+    <t>80052420</t>
+  </si>
+  <si>
+    <t>800524AC</t>
+  </si>
+  <si>
+    <t>8005607C</t>
+  </si>
+  <si>
+    <t>80059E90</t>
+  </si>
+  <si>
+    <t>800A6808</t>
+  </si>
+  <si>
+    <t>8002F500</t>
+  </si>
+  <si>
+    <t>80042D00</t>
+  </si>
+  <si>
+    <t>8008C00C</t>
+  </si>
+  <si>
+    <t>80085D0C</t>
+  </si>
+  <si>
+    <t>80035504</t>
+  </si>
+  <si>
+    <t>80034788</t>
+  </si>
+  <si>
+    <t>80048C08</t>
+  </si>
+  <si>
+    <t>80041D08</t>
+  </si>
+  <si>
+    <t>80083684</t>
+  </si>
+  <si>
+    <t>80085504</t>
+  </si>
+  <si>
+    <t>8003B50C</t>
+  </si>
+  <si>
+    <t>80010190</t>
+  </si>
+  <si>
+    <t>80028810</t>
+  </si>
+  <si>
+    <t>80010094</t>
+  </si>
+  <si>
+    <t>8002B394</t>
+  </si>
+  <si>
+    <t>8008C090</t>
+  </si>
+  <si>
+    <t>80048E98</t>
+  </si>
+  <si>
+    <t>80085614</t>
+  </si>
+  <si>
+    <t>8001031C</t>
+  </si>
+  <si>
+    <t>80083D28</t>
+  </si>
+  <si>
+    <t>800291A0</t>
+  </si>
+  <si>
+    <t>80061EA4</t>
+  </si>
+  <si>
+    <t>8008C0A0</t>
+  </si>
+  <si>
+    <t>800276AC</t>
+  </si>
+  <si>
+    <t>8002F72C</t>
+  </si>
+  <si>
+    <t>800749A8</t>
+  </si>
+  <si>
+    <t>80035CAC</t>
+  </si>
+  <si>
+    <t>80035D2C</t>
+  </si>
+  <si>
+    <t>80290C98</t>
+  </si>
+  <si>
+    <t>8002E5B0</t>
+  </si>
+  <si>
+    <t>80035C30</t>
+  </si>
+  <si>
+    <t>800290B4</t>
+  </si>
+  <si>
+    <t>8000F938</t>
+  </si>
+  <si>
+    <t>80029138</t>
+  </si>
+  <si>
+    <t>80035BB8</t>
+  </si>
+  <si>
+    <t>80085CB4</t>
+  </si>
+  <si>
+    <t>8008C0B4</t>
+  </si>
+  <si>
+    <t>8002783C</t>
+  </si>
+  <si>
+    <t>800354BC</t>
+  </si>
+  <si>
+    <t>8000F740</t>
+  </si>
+  <si>
+    <t>8000FC40</t>
+  </si>
+  <si>
+    <t>80074B44</t>
+  </si>
+  <si>
+    <t>80074A44</t>
+  </si>
+  <si>
+    <t>80049040</t>
+  </si>
+  <si>
+    <t>8002AFC4</t>
+  </si>
+  <si>
+    <t>80027248</t>
+  </si>
+  <si>
+    <t>80042448</t>
+  </si>
+  <si>
+    <t>80085458</t>
+  </si>
+  <si>
+    <t>8002B0D0</t>
+  </si>
+  <si>
+    <t>8008BFDC</t>
+  </si>
+  <si>
+    <t>80003458</t>
+  </si>
+  <si>
+    <t>800275D8</t>
+  </si>
+  <si>
+    <t>8006E0DC</t>
+  </si>
+  <si>
+    <t>80074A5C</t>
+  </si>
+  <si>
+    <t>800421D8</t>
+  </si>
+  <si>
+    <t>80041BD8</t>
+  </si>
+  <si>
+    <t>800107DC</t>
+  </si>
+  <si>
+    <t>8002B75C</t>
+  </si>
+  <si>
+    <t>8002F3E4</t>
+  </si>
+  <si>
+    <t>80076A60</t>
+  </si>
+  <si>
+    <t>8008B9E0</t>
+  </si>
+  <si>
+    <t>80085564</t>
+  </si>
+  <si>
+    <t>800743E8</t>
+  </si>
+  <si>
+    <t>800748E8</t>
+  </si>
+  <si>
+    <t>80035CEC</t>
+  </si>
+  <si>
+    <t>8003466C</t>
+  </si>
+  <si>
+    <t>80010AF0</t>
+  </si>
+  <si>
+    <t>800271F0</t>
+  </si>
+  <si>
+    <t>8002A570</t>
+  </si>
+  <si>
+    <t>80042FFC</t>
+  </si>
+  <si>
+    <t>8002B4F8</t>
+  </si>
+  <si>
+    <t>800836F4</t>
+  </si>
+  <si>
+    <t>8000F1C8</t>
+  </si>
+  <si>
+    <t>8000F3C0</t>
+  </si>
+  <si>
+    <t>8000F6C8</t>
+  </si>
+  <si>
+    <t>8000F93C</t>
+  </si>
+  <si>
+    <t>8000FB1C</t>
+  </si>
+  <si>
+    <t>8000FC18</t>
+  </si>
+  <si>
+    <t>8000FDA4</t>
+  </si>
+  <si>
+    <t>80010264</t>
+  </si>
+  <si>
+    <t>80010578</t>
+  </si>
+  <si>
+    <t>80026790</t>
+  </si>
+  <si>
+    <t>800267CC</t>
+  </si>
+  <si>
+    <t>80026A90</t>
+  </si>
+  <si>
+    <t>80026B64</t>
+  </si>
+  <si>
+    <t>80026CBC</t>
+  </si>
+  <si>
+    <t>80027C18</t>
+  </si>
+  <si>
+    <t>800283F4</t>
+  </si>
+  <si>
+    <t>80028478</t>
+  </si>
+  <si>
+    <t>800284C8</t>
+  </si>
+  <si>
+    <t>80029850</t>
+  </si>
+  <si>
+    <t>8002A2A4</t>
+  </si>
+  <si>
+    <t>8002A3B0</t>
+  </si>
+  <si>
+    <t>8002A674</t>
+  </si>
+  <si>
+    <t>8002A7D8</t>
+  </si>
+  <si>
+    <t>8002AA3C</t>
+  </si>
+  <si>
+    <t>8002C4C0</t>
+  </si>
+  <si>
+    <t>8002D414</t>
+  </si>
+  <si>
+    <t>8002D530</t>
+  </si>
+  <si>
+    <t>8002D75C</t>
+  </si>
+  <si>
+    <t>8003269C</t>
+  </si>
+  <si>
+    <t>800327B8</t>
+  </si>
+  <si>
+    <t>800334AC</t>
+  </si>
+  <si>
+    <t>800334F4</t>
+  </si>
+  <si>
+    <t>80033BA8</t>
+  </si>
+  <si>
+    <t>80033C20</t>
+  </si>
+  <si>
+    <t>80033C9C</t>
+  </si>
+  <si>
+    <t>80033CDC</t>
+  </si>
+  <si>
+    <t>80033D1C</t>
+  </si>
+  <si>
+    <t>8003D234</t>
+  </si>
+  <si>
+    <t>800394FC</t>
+  </si>
+  <si>
+    <t>8003FAD8</t>
+  </si>
+  <si>
+    <t>8003FC08</t>
+  </si>
+  <si>
+    <t>800400D8</t>
+  </si>
+  <si>
+    <t>80040348</t>
+  </si>
+  <si>
+    <t>80040C00</t>
+  </si>
+  <si>
+    <t>80040EFC</t>
+  </si>
+  <si>
+    <t>800478B0</t>
+  </si>
+  <si>
+    <t>80047598</t>
+  </si>
+  <si>
+    <t>8004783C</t>
+  </si>
+  <si>
+    <t>8005DDEC</t>
+  </si>
+  <si>
+    <t>80071DE4</t>
+  </si>
+  <si>
+    <t>8007E818</t>
+  </si>
+  <si>
+    <t>8007E888</t>
+  </si>
+  <si>
+    <t>8007EEBC</t>
+  </si>
+  <si>
+    <t>80080520</t>
+  </si>
+  <si>
+    <t>800805CC</t>
+  </si>
+  <si>
+    <t>8008062C</t>
+  </si>
+  <si>
+    <t>800806DC</t>
+  </si>
+  <si>
+    <t>80080D7C</t>
+  </si>
+  <si>
+    <t>80080DD4</t>
+  </si>
+  <si>
+    <t>8006A030</t>
+  </si>
+  <si>
+    <t>8006FCF8</t>
+  </si>
+  <si>
+    <t>80070168</t>
+  </si>
+  <si>
+    <t>80070180</t>
+  </si>
+  <si>
+    <t>8007021C</t>
+  </si>
+  <si>
+    <t>80070234</t>
+  </si>
+  <si>
+    <t>8007030C</t>
+  </si>
+  <si>
+    <t>80086AA8</t>
+  </si>
+  <si>
+    <t>800870A4</t>
+  </si>
+  <si>
+    <t>800870D4</t>
+  </si>
+  <si>
+    <t>80087158</t>
+  </si>
+  <si>
+    <t>80087168</t>
+  </si>
+  <si>
+    <t>8008717C</t>
+  </si>
+  <si>
+    <t>800A0674</t>
+  </si>
+  <si>
+    <t>80265778</t>
+  </si>
+  <si>
+    <t>8002A400</t>
+  </si>
+  <si>
+    <t>80027444</t>
+  </si>
+  <si>
+    <t>800424CC</t>
+  </si>
+  <si>
+    <t>800428C8</t>
+  </si>
+  <si>
+    <t>80029A90</t>
+  </si>
+  <si>
+    <t>800272D0</t>
+  </si>
+  <si>
+    <t>80042090</t>
+  </si>
+  <si>
+    <t>800295D4</t>
+  </si>
+  <si>
+    <t>8002F9D8</t>
+  </si>
+  <si>
+    <t>80027F9C</t>
+  </si>
+  <si>
+    <t>802F2EB0</t>
+  </si>
+  <si>
+    <t>80074AA4</t>
+  </si>
+  <si>
+    <t>8002AB64</t>
+  </si>
+  <si>
+    <t>80028164</t>
+  </si>
+  <si>
+    <t>80042DEC</t>
+  </si>
+  <si>
+    <t>80029B68</t>
+  </si>
+  <si>
+    <t>800420F4</t>
+  </si>
+  <si>
+    <t>8002F4B0</t>
+  </si>
+  <si>
+    <t>800274B0</t>
+  </si>
+  <si>
+    <t>80023AF0</t>
+  </si>
+  <si>
+    <t>8002FA34</t>
+  </si>
+  <si>
+    <t>80029878</t>
+  </si>
+  <si>
+    <t>8002A478</t>
+  </si>
+  <si>
+    <t>80049078</t>
+  </si>
+  <si>
+    <t>80074AB8</t>
+  </si>
+  <si>
+    <t>802C01C8</t>
+  </si>
+  <si>
+    <t>80026874</t>
+  </si>
+  <si>
+    <t>80026958</t>
+  </si>
+  <si>
+    <t>80028D70</t>
+  </si>
+  <si>
+    <t>800288B4</t>
+  </si>
+  <si>
+    <t>80028B58</t>
+  </si>
+  <si>
+    <t>8002741C</t>
+  </si>
+  <si>
+    <t>800275B4</t>
+  </si>
+  <si>
+    <t>800269A0</t>
+  </si>
+  <si>
+    <t>80023398</t>
+  </si>
+  <si>
+    <t>80028E48</t>
+  </si>
+  <si>
+    <t>800296E0</t>
+  </si>
+  <si>
+    <t>80029e44</t>
+  </si>
+  <si>
+    <t>8002d4E0</t>
+  </si>
+  <si>
+    <t>8002DA08</t>
+  </si>
+  <si>
+    <t>8002DA64</t>
+  </si>
+  <si>
+    <t>8003FF90</t>
+  </si>
+  <si>
+    <t>8003FFF4</t>
+  </si>
+  <si>
+    <t>800403CC</t>
+  </si>
+  <si>
+    <t>800407C8</t>
+  </si>
+  <si>
+    <t>80040CEC</t>
+  </si>
+  <si>
+    <t>80086BC8</t>
+  </si>
+  <si>
+    <t>80087148</t>
+  </si>
+  <si>
+    <t>80071AC4</t>
+  </si>
+  <si>
+    <t>80086C8C</t>
+  </si>
+  <si>
+    <t>80070280</t>
+  </si>
+  <si>
+    <t>80080B04</t>
+  </si>
+  <si>
+    <t>80086B04</t>
+  </si>
+  <si>
+    <t>800A1A18</t>
+  </si>
+  <si>
+    <t>80047550</t>
+  </si>
+  <si>
+    <t>802C0278</t>
+  </si>
+  <si>
+    <t>80086910</t>
+  </si>
+  <si>
+    <t>80071B58</t>
+  </si>
+  <si>
+    <t>80086CA8</t>
+  </si>
+  <si>
+    <t>8006A124</t>
+  </si>
+  <si>
+    <t>80044560</t>
+  </si>
+  <si>
+    <t>8007D8E0</t>
+  </si>
+  <si>
+    <t>8007026C</t>
+  </si>
+  <si>
+    <t>800478E8</t>
+  </si>
+  <si>
+    <t>8002D86C</t>
+  </si>
+  <si>
+    <t>80080F38</t>
+  </si>
+  <si>
+    <t>800A19B8</t>
+  </si>
+  <si>
+    <t>80071DF4</t>
+  </si>
+  <si>
+    <t>8002AAB4</t>
+  </si>
+  <si>
+    <t>80265750</t>
+  </si>
+  <si>
+    <t>80086CB0</t>
+  </si>
+  <si>
+    <t>800A1970</t>
+  </si>
+  <si>
+    <t>800A1A74</t>
+  </si>
+  <si>
+    <t>8002B7D4</t>
+  </si>
+  <si>
+    <t>8002F83C</t>
+  </si>
+  <si>
+    <t>80046290</t>
+  </si>
+  <si>
+    <t>80048BBC</t>
+  </si>
+  <si>
+    <t>8006E1d0</t>
+  </si>
+  <si>
+    <t>80076648</t>
+  </si>
+  <si>
+    <t>800766DC</t>
+  </si>
+  <si>
+    <t>80076A70</t>
+  </si>
+  <si>
+    <t>8008255C</t>
+  </si>
+  <si>
+    <t>80085A3C</t>
+  </si>
+  <si>
+    <t>80085E70</t>
+  </si>
+  <si>
+    <t>8008B848</t>
+  </si>
+  <si>
+    <t>8008BA3C</t>
+  </si>
+  <si>
+    <t>8008BB00</t>
+  </si>
+  <si>
+    <t>8008BBC4</t>
+  </si>
+  <si>
+    <t>8008BBE0</t>
+  </si>
+  <si>
+    <t>8008BBE8</t>
+  </si>
+  <si>
+    <t>8008C080</t>
+  </si>
+  <si>
+    <t>800A7B04</t>
+  </si>
+  <si>
+    <t>800A7B4C</t>
+  </si>
+  <si>
+    <t>800A7BAC</t>
+  </si>
+  <si>
+    <t>800A7C08</t>
+  </si>
+  <si>
+    <t>80290C70</t>
+  </si>
+  <si>
+    <t>802F2F60</t>
+  </si>
+  <si>
+    <t>80029758</t>
+  </si>
+  <si>
+    <t>80027B80</t>
+  </si>
+  <si>
+    <t>8005C16C</t>
+  </si>
+  <si>
+    <t>8000F9CC</t>
+  </si>
+  <si>
+    <t>80057068</t>
+  </si>
+  <si>
+    <t>80071B08</t>
+  </si>
+  <si>
+    <t>800286D0</t>
+  </si>
+  <si>
+    <t>8000FA74</t>
+  </si>
+  <si>
+    <t>80060B10</t>
+  </si>
+  <si>
+    <t>80071C70</t>
+  </si>
+  <si>
+    <t>8003EA54</t>
+  </si>
+  <si>
+    <t>8003EB94</t>
+  </si>
+  <si>
+    <t>8000FE58</t>
+  </si>
+  <si>
+    <t>8005B4BC</t>
+  </si>
+  <si>
+    <t>8005C1FC</t>
+  </si>
+  <si>
+    <t>8000F7FC</t>
+  </si>
+  <si>
+    <t>8000FD74</t>
+  </si>
+  <si>
+    <t>8000FF44</t>
+  </si>
+  <si>
+    <t>8000FFEC</t>
+  </si>
+  <si>
+    <t>800103D0</t>
+  </si>
+  <si>
+    <t>8001042C</t>
+  </si>
+  <si>
+    <t>80027D70</t>
+  </si>
+  <si>
+    <t>80028778</t>
+  </si>
+  <si>
+    <t>800293F0</t>
+  </si>
+  <si>
+    <t>80040B54</t>
+  </si>
+  <si>
+    <t>80040C94</t>
+  </si>
+  <si>
+    <t>8005AE7C</t>
+  </si>
+  <si>
+    <t>8005F578</t>
+  </si>
+  <si>
+    <t>800601F0</t>
+  </si>
+  <si>
+    <t>80060280</t>
+  </si>
+  <si>
+    <t>80064BBC</t>
+  </si>
+  <si>
+    <t>8007668C</t>
+  </si>
+  <si>
+    <t>80076834</t>
+  </si>
+  <si>
+    <t>800512C4</t>
+  </si>
+  <si>
+    <t>80051F18</t>
+  </si>
+  <si>
+    <t>800526E8</t>
+  </si>
+  <si>
+    <t>800533A8</t>
   </si>
 </sst>
 </file>
@@ -1192,10 +2239,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{886CD958-0F04-4514-BC66-130BF7E74800}" name="Table1" displayName="Table1" ref="A1:B173" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <autoFilter ref="A1:B173" xr:uid="{8C36E61F-68EE-44B6-B773-76A7B6ADFE00}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B173">
-    <sortCondition ref="B1:B173"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{886CD958-0F04-4514-BC66-130BF7E74800}" name="Table1" displayName="Table1" ref="A1:B349" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="A1:B349" xr:uid="{8C36E61F-68EE-44B6-B773-76A7B6ADFE00}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B349">
+    <sortCondition ref="A1:A349"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{1773728D-161D-433F-A6F8-351ECEAD1468}" name="mp6 reference" dataDxfId="1"/>
@@ -1502,10 +2549,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5AD9A1-E048-4F9F-8202-7E7D3A2CB996}">
-  <dimension ref="A1:F566"/>
+  <dimension ref="A1:F550"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B184" sqref="B184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1527,10 +2575,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B2" s="1">
-        <v>80023450</v>
+        <v>456</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>456</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1538,10 +2586,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B3" s="1">
-        <v>80023680</v>
+        <v>118</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1549,10 +2597,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" s="1">
-        <v>80027364</v>
+        <v>136</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1560,10 +2608,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B5" s="1">
-        <v>80027774</v>
+        <v>129</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1571,10 +2619,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" s="1">
-        <v>80028494</v>
+        <v>135</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1582,10 +2630,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B7" s="1">
-        <v>80028648</v>
+        <v>351</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>337</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1593,10 +2641,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" s="1">
-        <v>80029830</v>
+        <v>257</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>258</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1604,10 +2652,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B9" s="1">
-        <v>80041774</v>
+        <v>138</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1615,10 +2663,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1626,10 +2674,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>254</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1637,10 +2685,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1648,10 +2696,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>135</v>
+        <v>267</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>290</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1659,10 +2707,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1670,10 +2718,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>217</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1681,10 +2729,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>317</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1692,10 +2740,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>253</v>
+        <v>145</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>254</v>
+        <v>38</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1703,10 +2751,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1714,10 +2762,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>267</v>
+        <v>123</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>290</v>
+        <v>17</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1725,10 +2773,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>277</v>
+        <v>119</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>291</v>
+        <v>13</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1736,10 +2784,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>114</v>
+        <v>198</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>217</v>
+        <v>91</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1747,10 +2795,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>319</v>
+        <v>478</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>318</v>
+        <v>445</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1758,10 +2806,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>145</v>
+        <v>479</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>38</v>
+        <v>438</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1769,10 +2817,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>125</v>
+        <v>480</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>19</v>
+        <v>446</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1780,10 +2828,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>123</v>
+        <v>664</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>17</v>
+        <v>665</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1791,10 +2839,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>119</v>
+        <v>481</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>13</v>
+        <v>218</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1802,10 +2850,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>198</v>
+        <v>652</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>91</v>
+        <v>666</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1813,10 +2861,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>218</v>
+        <v>656</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>218</v>
+        <v>667</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1824,10 +2872,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>202</v>
+        <v>482</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>216</v>
+        <v>419</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1835,10 +2883,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>283</v>
+        <v>483</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>252</v>
+        <v>417</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1846,10 +2894,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>250</v>
+        <v>484</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>251</v>
+        <v>424</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1857,10 +2905,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>141</v>
+        <v>661</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>35</v>
+        <v>668</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1868,10 +2916,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>284</v>
+        <v>218</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>285</v>
+        <v>669</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -1879,10 +2927,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>292</v>
+        <v>485</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>293</v>
+        <v>462</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1890,10 +2938,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>279</v>
+        <v>486</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>294</v>
+        <v>472</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1901,10 +2949,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>242</v>
+        <v>202</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1912,10 +2960,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>130</v>
+        <v>283</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>24</v>
+        <v>252</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1923,10 +2971,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>295</v>
+        <v>251</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1934,10 +2982,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>296</v>
+        <v>143</v>
+      </c>
+      <c r="B39" s="1">
+        <v>80023450</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -1945,10 +2993,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>297</v>
+        <v>141</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>298</v>
+        <v>35</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1956,10 +3004,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>222</v>
+        <v>207</v>
+      </c>
+      <c r="B41" s="1">
+        <v>80023680</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -1967,10 +3015,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -1978,10 +3026,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>280</v>
+        <v>586</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>300</v>
+        <v>571</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -1989,10 +3037,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -2000,10 +3048,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>197</v>
+        <v>279</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>90</v>
+        <v>294</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -2011,10 +3059,10 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -2022,10 +3070,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -2033,10 +3081,10 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -2044,10 +3092,10 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>110</v>
+        <v>271</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>7</v>
+        <v>296</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -2055,10 +3103,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>230</v>
+        <v>297</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>225</v>
+        <v>298</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -2066,2287 +3114,2991 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>278</v>
+        <v>237</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>302</v>
+        <v>222</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>261</v>
+        <v>487</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>304</v>
+        <v>473</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>262</v>
+        <v>488</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>303</v>
+        <v>451</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>115</v>
+        <v>281</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>10</v>
+        <v>299</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>126</v>
+        <v>578</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>20</v>
+        <v>557</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>21</v>
+        <v>132</v>
+      </c>
+      <c r="B56" s="1">
+        <v>80027364</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>128</v>
+        <v>579</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>22</v>
+        <v>553</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>179</v>
+        <v>585</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>72</v>
+        <v>570</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>139</v>
+        <v>280</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>33</v>
+        <v>300</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>201</v>
+        <v>270</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>215</v>
+        <v>301</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>276</v>
+        <v>489</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>311</v>
+        <v>457</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>124</v>
+        <v>490</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>18</v>
+        <v>429</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>105</v>
+        <v>197</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>9</v>
+        <v>199</v>
+      </c>
+      <c r="B64" s="1">
+        <v>80027774</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>272</v>
+        <v>491</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>332</v>
+        <v>443</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>263</v>
+        <v>214</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>307</v>
+        <v>26</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>264</v>
+        <v>131</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>308</v>
+        <v>25</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>274</v>
+        <v>473</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>309</v>
+        <v>670</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>275</v>
+        <v>583</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>310</v>
+        <v>561</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>112</v>
+        <v>584</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>8</v>
+        <v>565</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
+      </c>
+      <c r="B72" s="1">
+        <v>80028494</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>333</v>
+        <v>110</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>327</v>
+        <v>7</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>14</v>
+        <v>111</v>
+      </c>
+      <c r="B74" s="1">
+        <v>80028648</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>121</v>
+        <v>352</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>15</v>
+        <v>338</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>117</v>
+        <v>650</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>11</v>
+        <v>671</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>236</v>
+        <v>492</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>221</v>
+        <v>418</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>334</v>
+        <v>493</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>328</v>
+        <v>437</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>238</v>
+        <v>494</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>223</v>
+        <v>439</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>335</v>
+        <v>495</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>329</v>
+        <v>426</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>259</v>
+        <v>353</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>305</v>
+        <v>349</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>231</v>
+        <v>655</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>219</v>
+        <v>672</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>336</v>
+        <v>581</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>325</v>
+        <v>559</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>228</v>
+        <v>116</v>
+      </c>
+      <c r="B85" s="1">
+        <v>80029830</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>330</v>
+        <v>582</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>324</v>
+        <v>573</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>331</v>
+        <v>580</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>326</v>
+        <v>556</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>229</v>
+        <v>278</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>224</v>
+        <v>302</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>232</v>
+        <v>587</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>226</v>
+        <v>567</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>233</v>
+        <v>354</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>227</v>
+        <v>346</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>220</v>
+        <v>304</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>156</v>
+        <v>262</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>49</v>
+        <v>303</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>288</v>
+        <v>588</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>289</v>
+        <v>552</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>282</v>
+        <v>649</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>93</v>
+        <v>574</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>104</v>
+        <v>496</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>2</v>
+        <v>474</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>244</v>
+        <v>589</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>245</v>
+        <v>564</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>246</v>
+        <v>497</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>247</v>
+        <v>450</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>187</v>
+        <v>115</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>144</v>
+        <v>498</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>37</v>
+        <v>454</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>205</v>
+        <v>126</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>140</v>
+        <v>499</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>34</v>
+        <v>420</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>203</v>
+        <v>500</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>94</v>
+        <v>476</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>186</v>
+        <v>501</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>79</v>
+        <v>463</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>240</v>
+        <v>620</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>241</v>
+        <v>625</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>322</v>
+        <v>502</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>323</v>
+        <v>435</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>166</v>
+        <v>355</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>59</v>
+        <v>344</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>165</v>
+        <v>356</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>58</v>
+        <v>348</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>167</v>
+        <v>357</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>60</v>
+        <v>347</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>168</v>
+        <v>358</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>61</v>
+        <v>350</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>175</v>
+        <v>503</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>68</v>
+        <v>464</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>182</v>
+        <v>590</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>75</v>
+        <v>569</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>185</v>
+        <v>504</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>78</v>
+        <v>406</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>213</v>
+        <v>505</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>103</v>
+        <v>430</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>174</v>
+        <v>616</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>67</v>
+        <v>626</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>137</v>
+        <v>591</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>31</v>
+        <v>560</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>180</v>
+        <v>592</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>73</v>
+        <v>572</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>196</v>
+        <v>359</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>89</v>
+        <v>339</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>181</v>
+        <v>506</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>74</v>
+        <v>471</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>183</v>
+        <v>507</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>76</v>
+        <v>411</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>194</v>
+        <v>508</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>87</v>
+        <v>444</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>195</v>
+        <v>509</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>88</v>
+        <v>410</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>211</v>
+        <v>510</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>101</v>
+        <v>440</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>209</v>
+        <v>511</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>99</v>
+        <v>436</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>208</v>
+        <v>512</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>98</v>
+        <v>432</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>212</v>
+        <v>513</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>102</v>
+        <v>470</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>210</v>
+        <v>514</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>100</v>
+        <v>433</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>63</v>
+        <v>215</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>172</v>
+        <v>516</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>65</v>
+        <v>416</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>188</v>
+        <v>113</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>191</v>
+        <v>272</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>84</v>
+        <v>331</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>190</v>
+        <v>263</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>83</v>
+        <v>307</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>189</v>
+        <v>264</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>82</v>
+        <v>308</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>169</v>
+        <v>274</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>62</v>
+        <v>309</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>176</v>
+        <v>275</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>69</v>
+        <v>310</v>
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>178</v>
+        <v>276</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>71</v>
+        <v>515</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>177</v>
+        <v>112</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>53</v>
+        <v>336</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>164</v>
+        <v>361</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>57</v>
+        <v>340</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>206</v>
+        <v>260</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>97</v>
+        <v>306</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>161</v>
+        <v>659</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>54</v>
+        <v>673</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>162</v>
+        <v>660</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>55</v>
+        <v>674</v>
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>43</v>
+        <v>239</v>
+      </c>
+      <c r="B148" s="1">
+        <v>80041774</v>
       </c>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>142</v>
+        <v>517</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>36</v>
+        <v>461</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>184</v>
+        <v>518</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>77</v>
+        <v>413</v>
       </c>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>192</v>
+        <v>593</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>85</v>
+        <v>558</v>
       </c>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>256</v>
+        <v>594</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>255</v>
+        <v>568</v>
       </c>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>158</v>
+        <v>519</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>51</v>
+        <v>460</v>
       </c>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>204</v>
+        <v>520</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>95</v>
+        <v>452</v>
       </c>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>316</v>
+        <v>595</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>317</v>
+        <v>554</v>
       </c>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>106</v>
+        <v>596</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>4</v>
+        <v>555</v>
       </c>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>107</v>
+        <v>521</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>5</v>
+        <v>407</v>
       </c>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>265</v>
+        <v>597</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>315</v>
+        <v>566</v>
       </c>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>269</v>
+        <v>332</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>266</v>
+        <v>522</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>312</v>
+        <v>475</v>
       </c>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>149</v>
+        <v>612</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>42</v>
+        <v>627</v>
       </c>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>148</v>
+        <v>606</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>41</v>
+        <v>628</v>
       </c>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>154</v>
+        <v>524</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>47</v>
+        <v>412</v>
       </c>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>153</v>
+        <v>525</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>46</v>
+        <v>422</v>
       </c>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>146</v>
+        <v>523</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>39</v>
+        <v>449</v>
       </c>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>147</v>
+        <v>615</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>40</v>
+        <v>575</v>
       </c>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>268</v>
+        <v>117</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>314</v>
+        <v>11</v>
       </c>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>157</v>
+        <v>382</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>50</v>
+        <v>391</v>
       </c>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>320</v>
+        <v>371</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>321</v>
+        <v>398</v>
       </c>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>108</v>
+        <v>365</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>6</v>
+        <v>399</v>
       </c>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="2"/>
-      <c r="B174" s="2"/>
+      <c r="A174" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>395</v>
+      </c>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="2"/>
-      <c r="B175" s="2"/>
+      <c r="A175" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>394</v>
+      </c>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="2"/>
-      <c r="B176" s="2"/>
+      <c r="A176" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>392</v>
+      </c>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="2"/>
-      <c r="B177" s="2"/>
+      <c r="A177" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>400</v>
+      </c>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="2"/>
-      <c r="B178" s="2"/>
+      <c r="A178" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>393</v>
+      </c>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="2"/>
-      <c r="B179" s="2"/>
+      <c r="A179" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>401</v>
+      </c>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="2"/>
-      <c r="B180" s="2"/>
+      <c r="A180" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>402</v>
+      </c>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="2"/>
-      <c r="B181" s="2"/>
+      <c r="A181" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>396</v>
+      </c>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="2"/>
-      <c r="B182" s="2"/>
+      <c r="A182" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>684</v>
+      </c>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="2"/>
-      <c r="B183" s="2"/>
+      <c r="A183" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>685</v>
+      </c>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="2"/>
-      <c r="B184" s="2"/>
+      <c r="A184" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>397</v>
+      </c>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="2"/>
-      <c r="B185" s="2"/>
+      <c r="A185" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>404</v>
+      </c>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="2"/>
-      <c r="B186" s="2"/>
+      <c r="A186" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>675</v>
+      </c>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="2"/>
-      <c r="B187" s="2"/>
+      <c r="A187" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="2"/>
-      <c r="B188" s="2"/>
+      <c r="A188" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>676</v>
+      </c>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="2"/>
-      <c r="B189" s="2"/>
+      <c r="A189" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>327</v>
+      </c>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="2"/>
-      <c r="B190" s="2"/>
+      <c r="A190" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>677</v>
+      </c>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="2"/>
-      <c r="B191" s="2"/>
+      <c r="A191" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>678</v>
+      </c>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="2"/>
-      <c r="B192" s="2"/>
+      <c r="A192" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>223</v>
+      </c>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="2"/>
-      <c r="B193" s="2"/>
+      <c r="A193" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="2"/>
-      <c r="B194" s="2"/>
+      <c r="A194" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>427</v>
+      </c>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="2"/>
-      <c r="B195" s="2"/>
+      <c r="A195" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>679</v>
+      </c>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="2"/>
-      <c r="B196" s="2"/>
+      <c r="A196" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>305</v>
+      </c>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="2"/>
-      <c r="B197" s="2"/>
+      <c r="A197" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>458</v>
+      </c>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="2"/>
-      <c r="B198" s="2"/>
+      <c r="A198" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>629</v>
+      </c>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" s="2"/>
-      <c r="B199" s="2"/>
+      <c r="A199" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="2"/>
-      <c r="B200" s="2"/>
+      <c r="A200" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>468</v>
+      </c>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="2"/>
-      <c r="B201" s="2"/>
+      <c r="A201" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>469</v>
+      </c>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="2"/>
-      <c r="B202" s="2"/>
+      <c r="A202" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>431</v>
+      </c>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" s="2"/>
-      <c r="B203" s="2"/>
+      <c r="A203" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="2"/>
-      <c r="B204" s="2"/>
+      <c r="A204" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>459</v>
+      </c>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" s="2"/>
-      <c r="B205" s="2"/>
+      <c r="A205" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>563</v>
+      </c>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="2"/>
-      <c r="B206" s="2"/>
+      <c r="A206" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>576</v>
+      </c>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="2"/>
-      <c r="B207" s="2"/>
+      <c r="A207" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>447</v>
+      </c>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" s="2"/>
-      <c r="B208" s="2"/>
+      <c r="A208" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>219</v>
+      </c>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="2"/>
-      <c r="B209" s="2"/>
+      <c r="A209" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>324</v>
+      </c>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" s="2"/>
-      <c r="B210" s="2"/>
+      <c r="A210" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>228</v>
+      </c>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="2"/>
-      <c r="B211" s="2"/>
+      <c r="A211" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>630</v>
+      </c>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="2"/>
-      <c r="B212" s="2"/>
+      <c r="A212" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>680</v>
+      </c>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" s="2"/>
-      <c r="B213" s="2"/>
+      <c r="A213" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>631</v>
+      </c>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" s="2"/>
-      <c r="B214" s="2"/>
+      <c r="A214" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>323</v>
+      </c>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" s="2"/>
-      <c r="B215" s="2"/>
+      <c r="A215" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>325</v>
+      </c>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" s="2"/>
-      <c r="B216" s="2"/>
+      <c r="A216" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>681</v>
+      </c>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" s="2"/>
-      <c r="B217" s="2"/>
+      <c r="A217" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>465</v>
+      </c>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" s="2"/>
-      <c r="B218" s="2"/>
+      <c r="A218" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>632</v>
+      </c>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" s="2"/>
-      <c r="B219" s="2"/>
+      <c r="A219" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>633</v>
+      </c>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" s="2"/>
-      <c r="B220" s="2"/>
+      <c r="A220" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>414</v>
+      </c>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" s="2"/>
-      <c r="B221" s="2"/>
+      <c r="A221" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>477</v>
+      </c>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" s="2"/>
-      <c r="B222" s="2"/>
+      <c r="A222" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>425</v>
+      </c>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" s="2"/>
-      <c r="B223" s="2"/>
+      <c r="A223" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>224</v>
+      </c>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" s="2"/>
-      <c r="B224" s="2"/>
+      <c r="A224" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A225" s="2"/>
-      <c r="B225" s="2"/>
+      <c r="A225" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>453</v>
+      </c>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226" s="2"/>
-      <c r="B226" s="2"/>
+      <c r="A226" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>415</v>
+      </c>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227" s="2"/>
-      <c r="B227" s="2"/>
+      <c r="A227" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>467</v>
+      </c>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228" s="2"/>
-      <c r="B228" s="2"/>
+      <c r="A228" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>423</v>
+      </c>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229" s="2"/>
-      <c r="B229" s="2"/>
+      <c r="A229" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" s="2"/>
-      <c r="B230" s="2"/>
+      <c r="A230" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>634</v>
+      </c>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231" s="2"/>
-      <c r="B231" s="2"/>
+      <c r="A231" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>441</v>
+      </c>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" s="2"/>
-      <c r="B232" s="2"/>
+      <c r="A232" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>409</v>
+      </c>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233" s="2"/>
-      <c r="B233" s="2"/>
+      <c r="A233" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>635</v>
+      </c>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" s="2"/>
-      <c r="B234" s="2"/>
+      <c r="A234" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" s="2"/>
-      <c r="B235" s="2"/>
+      <c r="A235" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>636</v>
+      </c>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" s="2"/>
-      <c r="B236" s="2"/>
+      <c r="A236" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>466</v>
+      </c>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" s="2"/>
-      <c r="B237" s="2"/>
+      <c r="A237" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>637</v>
+      </c>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238" s="2"/>
-      <c r="B238" s="2"/>
+      <c r="A238" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>638</v>
+      </c>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239" s="2"/>
-      <c r="B239" s="2"/>
+      <c r="A239" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>639</v>
+      </c>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240" s="2"/>
-      <c r="B240" s="2"/>
+      <c r="A240" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>640</v>
+      </c>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" s="2"/>
-      <c r="B241" s="2"/>
+      <c r="A241" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>641</v>
+      </c>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242" s="2"/>
-      <c r="B242" s="2"/>
+      <c r="A242" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>455</v>
+      </c>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243" s="2"/>
-      <c r="B243" s="2"/>
+      <c r="A243" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>408</v>
+      </c>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244" s="2"/>
-      <c r="B244" s="2"/>
+      <c r="A244" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>642</v>
+      </c>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245" s="2"/>
-      <c r="B245" s="2"/>
+      <c r="A245" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>421</v>
+      </c>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246" s="2"/>
-      <c r="B246" s="2"/>
+      <c r="A246" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>428</v>
+      </c>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A247" s="2"/>
-      <c r="B247" s="2"/>
+      <c r="A247" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>442</v>
+      </c>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" s="2"/>
-      <c r="B248" s="2"/>
+      <c r="A248" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A249" s="2"/>
-      <c r="B249" s="2"/>
+      <c r="A249" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>289</v>
+      </c>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A250" s="2"/>
-      <c r="B250" s="2"/>
+      <c r="A250" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A251" s="2"/>
-      <c r="B251" s="2"/>
+      <c r="A251" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252" s="2"/>
-      <c r="B252" s="2"/>
+      <c r="A252" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" s="2"/>
-      <c r="B253" s="2"/>
+      <c r="A253" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>245</v>
+      </c>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A254" s="2"/>
-      <c r="B254" s="2"/>
+      <c r="A254" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255" s="2"/>
-      <c r="B255" s="2"/>
+      <c r="A255" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256" s="2"/>
-      <c r="B256" s="2"/>
+      <c r="A256" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257" s="2"/>
-      <c r="B257" s="2"/>
+      <c r="A257" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A258" s="2"/>
-      <c r="B258" s="2"/>
+      <c r="A258" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A259" s="2"/>
-      <c r="B259" s="2"/>
+      <c r="A259" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A260" s="2"/>
-      <c r="B260" s="2"/>
+      <c r="A260" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A261" s="2"/>
-      <c r="B261" s="2"/>
+      <c r="A261" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A262" s="2"/>
-      <c r="B262" s="2"/>
+      <c r="A262" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A263" s="2"/>
-      <c r="B263" s="2"/>
+      <c r="A263" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>643</v>
+      </c>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A264" s="2"/>
-      <c r="B264" s="2"/>
+      <c r="A264" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>241</v>
+      </c>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A265" s="2"/>
-      <c r="B265" s="2"/>
+      <c r="A265" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>644</v>
+      </c>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A266" s="2"/>
-      <c r="B266" s="2"/>
+      <c r="A266" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A267" s="2"/>
-      <c r="B267" s="2"/>
+      <c r="A267" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>645</v>
+      </c>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A268" s="2"/>
-      <c r="B268" s="2"/>
+      <c r="A268" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>646</v>
+      </c>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A269" s="2"/>
-      <c r="B269" s="2"/>
+      <c r="A269" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A270" s="2"/>
-      <c r="B270" s="2"/>
+      <c r="A270" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>322</v>
+      </c>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271" s="2"/>
-      <c r="B271" s="2"/>
+      <c r="A271" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A272" s="2"/>
-      <c r="B272" s="2"/>
+      <c r="A272" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A273" s="2"/>
-      <c r="B273" s="2"/>
+      <c r="A273" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A274" s="2"/>
-      <c r="B274" s="2"/>
+      <c r="A274" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A275" s="2"/>
-      <c r="B275" s="2"/>
+      <c r="A275" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A276" s="2"/>
-      <c r="B276" s="2"/>
+      <c r="A276" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A277" s="2"/>
-      <c r="B277" s="2"/>
+      <c r="A277" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A278" s="2"/>
-      <c r="B278" s="2"/>
+      <c r="A278" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A279" s="2"/>
-      <c r="B279" s="2"/>
+      <c r="A279" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A280" s="2"/>
-      <c r="B280" s="2"/>
+      <c r="A280" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A281" s="2"/>
-      <c r="B281" s="2"/>
+      <c r="A281" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A282" s="2"/>
-      <c r="B282" s="2"/>
+      <c r="A282" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A283" s="2"/>
-      <c r="B283" s="2"/>
+      <c r="A283" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A284" s="2"/>
-      <c r="B284" s="2"/>
+      <c r="A284" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A285" s="2"/>
-      <c r="B285" s="2"/>
+      <c r="A285" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A286" s="2"/>
-      <c r="B286" s="2"/>
+      <c r="A286" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A287" s="2"/>
-      <c r="B287" s="2"/>
+      <c r="A287" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A288" s="2"/>
-      <c r="B288" s="2"/>
+      <c r="A288" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A289" s="2"/>
-      <c r="B289" s="2"/>
+      <c r="A289" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A290" s="2"/>
-      <c r="B290" s="2"/>
+      <c r="A290" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A291" s="2"/>
-      <c r="B291" s="2"/>
+      <c r="A291" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A292" s="2"/>
-      <c r="B292" s="2"/>
+      <c r="A292" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A293" s="2"/>
-      <c r="B293" s="2"/>
+      <c r="A293" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A294" s="2"/>
-      <c r="B294" s="2"/>
+      <c r="A294" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A295" s="2"/>
-      <c r="B295" s="2"/>
+      <c r="A295" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A296" s="2"/>
-      <c r="B296" s="2"/>
+      <c r="A296" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A297" s="2"/>
-      <c r="B297" s="2"/>
+      <c r="A297" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A298" s="2"/>
-      <c r="B298" s="2"/>
+      <c r="A298" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A299" s="2"/>
-      <c r="B299" s="2"/>
+      <c r="A299" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A300" s="2"/>
-      <c r="B300" s="2"/>
+      <c r="A300" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A301" s="2"/>
-      <c r="B301" s="2"/>
+      <c r="A301" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A302" s="2"/>
-      <c r="B302" s="2"/>
+      <c r="A302" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A303" s="2"/>
-      <c r="B303" s="2"/>
+      <c r="A303" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A304" s="2"/>
-      <c r="B304" s="2"/>
+      <c r="A304" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A305" s="2"/>
-      <c r="B305" s="2"/>
+      <c r="A305" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A306" s="2"/>
-      <c r="B306" s="2"/>
+      <c r="A306" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A307" s="2"/>
-      <c r="B307" s="2"/>
+      <c r="A307" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A308" s="2"/>
-      <c r="B308" s="2"/>
+      <c r="A308" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A309" s="2"/>
-      <c r="B309" s="2"/>
+      <c r="A309" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>384</v>
+      </c>
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A310" s="2"/>
-      <c r="B310" s="2"/>
+      <c r="A310" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A311" s="2"/>
-      <c r="B311" s="2"/>
+      <c r="A311" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A312" s="2"/>
-      <c r="B312" s="2"/>
+      <c r="A312" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A313" s="2"/>
-      <c r="B313" s="2"/>
+      <c r="A313" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A314" s="2"/>
-      <c r="B314" s="2"/>
+      <c r="A314" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A315" s="2"/>
-      <c r="B315" s="2"/>
+      <c r="A315" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>255</v>
+      </c>
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A316" s="2"/>
-      <c r="B316" s="2"/>
+      <c r="A316" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A317" s="2"/>
-      <c r="B317" s="2"/>
+      <c r="A317" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A318" s="2"/>
-      <c r="B318" s="2"/>
+      <c r="A318" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>316</v>
+      </c>
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A319" s="2"/>
-      <c r="B319" s="2"/>
+      <c r="A319" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>647</v>
+      </c>
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A320" s="2"/>
-      <c r="B320" s="2"/>
+      <c r="A320" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>434</v>
+      </c>
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A321" s="2"/>
-      <c r="B321" s="2"/>
+      <c r="A321" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A322" s="2"/>
-      <c r="B322" s="2"/>
+      <c r="A322" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>385</v>
+      </c>
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A323" s="2"/>
-      <c r="B323" s="2"/>
+      <c r="A323" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A324" s="2"/>
-      <c r="B324" s="2"/>
+      <c r="A324" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A325" s="2"/>
-      <c r="B325" s="2"/>
+      <c r="A325" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>343</v>
+      </c>
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A326" s="2"/>
-      <c r="B326" s="2"/>
+      <c r="A326" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>342</v>
+      </c>
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A327" s="2"/>
-      <c r="B327" s="2"/>
+      <c r="A327" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>341</v>
+      </c>
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A328" s="2"/>
-      <c r="B328" s="2"/>
+      <c r="A328" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>388</v>
+      </c>
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A329" s="2"/>
-      <c r="B329" s="2"/>
+      <c r="A329" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>386</v>
+      </c>
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A330" s="2"/>
-      <c r="B330" s="2"/>
+      <c r="A330" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>312</v>
+      </c>
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A331" s="2"/>
-      <c r="B331" s="2"/>
+      <c r="A331" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>311</v>
+      </c>
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A332" s="2"/>
-      <c r="B332" s="2"/>
+      <c r="A332" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A333" s="2"/>
-      <c r="B333" s="2"/>
+      <c r="A333" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A334" s="2"/>
-      <c r="B334" s="2"/>
+      <c r="A334" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A335" s="2"/>
-      <c r="B335" s="2"/>
+      <c r="A335" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A336" s="2"/>
-      <c r="B336" s="2"/>
+      <c r="A336" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A337" s="2"/>
-      <c r="B337" s="2"/>
+      <c r="A337" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A338" s="2"/>
-      <c r="B338" s="2"/>
+      <c r="A338" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>389</v>
+      </c>
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A339" s="2"/>
-      <c r="B339" s="2"/>
+      <c r="A339" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A340" s="2"/>
-      <c r="B340" s="2"/>
+      <c r="A340" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A341" s="2"/>
-      <c r="B341" s="2"/>
+      <c r="A341" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>313</v>
+      </c>
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A342" s="2"/>
-      <c r="B342" s="2"/>
+      <c r="A342" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="D342" s="1"/>
       <c r="E342" s="1"/>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A343" s="2"/>
-      <c r="B343" s="2"/>
+      <c r="A343" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>562</v>
+      </c>
       <c r="D343" s="1"/>
       <c r="E343" s="1"/>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A344" s="2"/>
-      <c r="B344" s="2"/>
+      <c r="A344" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>314</v>
+      </c>
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A345" s="2"/>
-      <c r="B345" s="2"/>
+      <c r="A345" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>345</v>
+      </c>
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A346" s="2"/>
-      <c r="B346" s="2"/>
+      <c r="A346" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A347" s="2"/>
-      <c r="B347" s="2"/>
+      <c r="A347" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>648</v>
+      </c>
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A348" s="2"/>
-      <c r="B348" s="2"/>
+      <c r="A348" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A349" s="2"/>
-      <c r="B349" s="2"/>
+      <c r="A349" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>390</v>
+      </c>
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
     </row>
@@ -5079,136 +6831,104 @@
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
-      <c r="D471" s="1"/>
-      <c r="E471" s="1"/>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
-      <c r="D472" s="1"/>
-      <c r="E472" s="1"/>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
-      <c r="D473" s="1"/>
-      <c r="E473" s="1"/>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
-      <c r="D474" s="1"/>
-      <c r="E474" s="1"/>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
-      <c r="D475" s="1"/>
-      <c r="E475" s="1"/>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
-      <c r="D476" s="1"/>
-      <c r="E476" s="1"/>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
-      <c r="D477" s="1"/>
-      <c r="E477" s="1"/>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
-      <c r="D478" s="1"/>
-      <c r="E478" s="1"/>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
-      <c r="D479" s="1"/>
-      <c r="E479" s="1"/>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
-      <c r="D480" s="1"/>
-      <c r="E480" s="1"/>
-    </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
-      <c r="D481" s="1"/>
-      <c r="E481" s="1"/>
-    </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
-      <c r="D482" s="1"/>
-      <c r="E482" s="1"/>
-    </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
-      <c r="D483" s="1"/>
-      <c r="E483" s="1"/>
-    </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
-      <c r="D484" s="1"/>
-      <c r="E484" s="1"/>
-    </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
-      <c r="D485" s="1"/>
-      <c r="E485" s="1"/>
-    </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
-      <c r="D486" s="1"/>
-      <c r="E486" s="1"/>
-    </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
     </row>
@@ -5427,70 +7147,6 @@
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
-    </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A551" s="2"/>
-      <c r="B551" s="2"/>
-    </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A552" s="2"/>
-      <c r="B552" s="2"/>
-    </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A553" s="2"/>
-      <c r="B553" s="2"/>
-    </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A554" s="2"/>
-      <c r="B554" s="2"/>
-    </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A555" s="2"/>
-      <c r="B555" s="2"/>
-    </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A556" s="2"/>
-      <c r="B556" s="2"/>
-    </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A557" s="2"/>
-      <c r="B557" s="2"/>
-    </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A558" s="2"/>
-      <c r="B558" s="2"/>
-    </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A559" s="2"/>
-      <c r="B559" s="2"/>
-    </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A560" s="2"/>
-      <c r="B560" s="2"/>
-    </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A561" s="2"/>
-      <c r="B561" s="2"/>
-    </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A562" s="2"/>
-      <c r="B562" s="2"/>
-    </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A563" s="2"/>
-      <c r="B563" s="2"/>
-    </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A564" s="2"/>
-      <c r="B564" s="2"/>
-    </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A565" s="2"/>
-      <c r="B565" s="2"/>
-    </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A566" s="2"/>
-      <c r="B566" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
